--- a/motor production since 2000.xlsx
+++ b/motor production since 2000.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claire/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claire/Documents/OPENAI/assistant api/demo2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14575C-62AD-094A-8E9E-69782AF8BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B768A55-3426-1249-9E30-7810BC4853E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7BD3A7E0-62CD-D046-8684-3EADED4397C3}"/>
+    <workbookView xWindow="4440" yWindow="820" windowWidth="25800" windowHeight="17440" xr2:uid="{7BD3A7E0-62CD-D046-8684-3EADED4397C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$909</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$909</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="93">
   <si>
     <t>COUNTRY/REGION</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>288 235</t>
-  </si>
-  <si>
-    <t>1 105 223</t>
   </si>
   <si>
     <t>EGYPT</t>
@@ -702,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +710,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -721,8 +718,8 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>92</v>
+      <c r="A2" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1458,8 +1455,8 @@
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
+      <c r="C45">
+        <v>1105223</v>
       </c>
       <c r="D45">
         <v>6209</v>
@@ -1473,7 +1470,7 @@
         <v>2021</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>23754</v>
@@ -1951,7 +1948,7 @@
         <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75">
         <v>4982</v>
@@ -1965,7 +1962,7 @@
         <v>2020</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>93001</v>
@@ -1982,13 +1979,13 @@
         <v>2020</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77">
         <v>104544</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77">
         <v>104544</v>
@@ -1999,7 +1996,7 @@
         <v>2020</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78">
         <v>237057</v>
@@ -2016,7 +2013,7 @@
         <v>2020</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79">
         <v>1608870</v>
@@ -2033,7 +2030,7 @@
         <v>2020</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80">
         <v>327681</v>
@@ -2050,7 +2047,7 @@
         <v>2020</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81">
         <v>19994081</v>
@@ -2067,7 +2064,7 @@
         <v>2020</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82">
         <v>1152901</v>
@@ -2084,13 +2081,13 @@
         <v>2020</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83">
         <v>23754</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83">
         <v>23754</v>
@@ -2101,13 +2098,13 @@
         <v>2020</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84">
         <v>86270</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84">
         <v>86270</v>
@@ -2118,7 +2115,7 @@
         <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C85">
         <v>927718</v>
@@ -2135,7 +2132,7 @@
         <v>2020</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86">
         <v>3515372</v>
@@ -2152,13 +2149,13 @@
         <v>2020</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87">
         <v>406497</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E87">
         <v>406497</v>
@@ -2169,7 +2166,7 @@
         <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88">
         <v>2851268</v>
@@ -2186,7 +2183,7 @@
         <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89">
         <v>551400</v>
@@ -2203,7 +2200,7 @@
         <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90">
         <v>826210</v>
@@ -2220,7 +2217,7 @@
         <v>2020</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91">
         <v>451826</v>
@@ -2237,7 +2234,7 @@
         <v>2020</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C92">
         <v>6960025</v>
@@ -2254,7 +2251,7 @@
         <v>2020</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C93">
         <v>64790</v>
@@ -2271,7 +2268,7 @@
         <v>2020</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94">
         <v>457755</v>
@@ -2288,7 +2285,7 @@
         <v>2020</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95">
         <v>221299</v>
@@ -2305,7 +2302,7 @@
         <v>2020</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96">
         <v>967479</v>
@@ -2322,7 +2319,7 @@
         <v>2020</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97">
         <v>278900</v>
@@ -2339,7 +2336,7 @@
         <v>2020</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C98">
         <v>211281</v>
@@ -2356,13 +2353,13 @@
         <v>2020</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <v>438107</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E99">
         <v>438107</v>
@@ -2373,7 +2370,7 @@
         <v>2020</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C100">
         <v>1260517</v>
@@ -2390,7 +2387,7 @@
         <v>2020</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C101">
         <v>23272</v>
@@ -2407,13 +2404,13 @@
         <v>2020</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C102">
         <v>985000</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E102">
         <v>985000</v>
@@ -2424,13 +2421,13 @@
         <v>2020</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C103">
         <v>141714</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E103">
         <v>141714</v>
@@ -2441,7 +2438,7 @@
         <v>2020</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C104">
         <v>238216</v>
@@ -2458,7 +2455,7 @@
         <v>2020</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105">
         <v>3211706</v>
@@ -2475,7 +2472,7 @@
         <v>2020</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106">
         <v>1800664</v>
@@ -2492,7 +2489,7 @@
         <v>2020</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107">
         <v>180967</v>
@@ -2509,7 +2506,7 @@
         <v>2020</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C108">
         <v>537633</v>
@@ -2526,7 +2523,7 @@
         <v>2020</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C109">
         <v>855043</v>
@@ -2543,7 +2540,7 @@
         <v>2020</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110">
         <v>4202</v>
@@ -2560,7 +2557,7 @@
         <v>2020</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C111">
         <v>920928</v>
@@ -2594,13 +2591,13 @@
         <v>2020</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113">
         <v>280080</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E113">
         <v>280080</v>
@@ -2611,7 +2608,7 @@
         <v>2019</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C114">
         <v>108364</v>
@@ -2628,10 +2625,10 @@
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D115">
         <v>21000</v>
@@ -2645,7 +2642,7 @@
         <v>2019</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116">
         <v>247020</v>
@@ -2662,7 +2659,7 @@
         <v>2019</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C117">
         <v>2448490</v>
@@ -2679,7 +2676,7 @@
         <v>2019</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118">
         <v>461370</v>
@@ -2696,7 +2693,7 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>21360193</v>
@@ -2713,7 +2710,7 @@
         <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C120">
         <v>1427563</v>
@@ -2730,7 +2727,7 @@
         <v>2019</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C121">
         <v>18500</v>
@@ -2747,7 +2744,7 @@
         <v>2019</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C122">
         <v>114785</v>
@@ -2764,7 +2761,7 @@
         <v>2019</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C123">
         <v>1675198</v>
@@ -2781,7 +2778,7 @@
         <v>2019</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C124">
         <v>4661328</v>
@@ -2798,7 +2795,7 @@
         <v>2019</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C125">
         <v>498158</v>
@@ -2815,7 +2812,7 @@
         <v>2019</v>
       </c>
       <c r="B126" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C126">
         <v>3623335</v>
@@ -2832,7 +2829,7 @@
         <v>2019</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C127">
         <v>1045666</v>
@@ -2849,7 +2846,7 @@
         <v>2019</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C128">
         <v>770000</v>
@@ -2866,7 +2863,7 @@
         <v>2019</v>
       </c>
       <c r="B129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129">
         <v>542007</v>
@@ -2883,7 +2880,7 @@
         <v>2019</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C130">
         <v>8328756</v>
@@ -2900,7 +2897,7 @@
         <v>2019</v>
       </c>
       <c r="B131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C131">
         <v>534115</v>
@@ -2917,7 +2914,7 @@
         <v>2019</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132">
         <v>360110</v>
@@ -2934,7 +2931,7 @@
         <v>2019</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133">
         <v>1382714</v>
@@ -2951,7 +2948,7 @@
         <v>2019</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C134">
         <v>434700</v>
@@ -2968,7 +2965,7 @@
         <v>2019</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>282142</v>
@@ -2985,7 +2982,7 @@
         <v>2019</v>
       </c>
       <c r="B136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136">
         <v>490412</v>
@@ -3002,7 +2999,7 @@
         <v>2019</v>
       </c>
       <c r="B137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C137">
         <v>1523594</v>
@@ -3019,7 +3016,7 @@
         <v>2019</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C138">
         <v>34985</v>
@@ -3036,7 +3033,7 @@
         <v>2019</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C139">
         <v>1100000</v>
@@ -3053,7 +3050,7 @@
         <v>2019</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C140">
         <v>199102</v>
@@ -3070,7 +3067,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C141">
         <v>348665</v>
@@ -3087,7 +3084,7 @@
         <v>2019</v>
       </c>
       <c r="B142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C142">
         <v>3612587</v>
@@ -3104,7 +3101,7 @@
         <v>2019</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C143">
         <v>2248019</v>
@@ -3121,7 +3118,7 @@
         <v>2019</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144">
         <v>189549</v>
@@ -3138,7 +3135,7 @@
         <v>2019</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C145">
         <v>795254</v>
@@ -3155,7 +3152,7 @@
         <v>2019</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C146">
         <v>982642</v>
@@ -3172,7 +3169,7 @@
         <v>2019</v>
       </c>
       <c r="B147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C147">
         <v>6254</v>
@@ -3189,7 +3186,7 @@
         <v>2019</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C148">
         <v>1303135</v>
@@ -3223,7 +3220,7 @@
         <v>2019</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C150">
         <v>271113</v>
@@ -3240,7 +3237,7 @@
         <v>2018</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151">
         <v>208573</v>
@@ -3257,7 +3254,7 @@
         <v>2018</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152">
         <v>144500</v>
@@ -3274,7 +3271,7 @@
         <v>2018</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C153">
         <v>265958</v>
@@ -3291,7 +3288,7 @@
         <v>2018</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C154">
         <v>2386758</v>
@@ -3308,7 +3305,7 @@
         <v>2018</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C155">
         <v>655896</v>
@@ -3325,7 +3322,7 @@
         <v>2018</v>
       </c>
       <c r="B156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C156">
         <v>23529423</v>
@@ -3342,7 +3339,7 @@
         <v>2018</v>
       </c>
       <c r="B157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C157">
         <v>69000</v>
@@ -3359,7 +3356,7 @@
         <v>2018</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158">
         <v>1345041</v>
@@ -3376,7 +3373,7 @@
         <v>2018</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C159">
         <v>19500</v>
@@ -3393,7 +3390,7 @@
         <v>2018</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C160">
         <v>112104</v>
@@ -3410,7 +3407,7 @@
         <v>2018</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C161">
         <v>1763000</v>
@@ -3427,7 +3424,7 @@
         <v>2018</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C162">
         <v>5120409</v>
@@ -3444,7 +3441,7 @@
         <v>2018</v>
       </c>
       <c r="B163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C163">
         <v>430988</v>
@@ -3461,7 +3458,7 @@
         <v>2018</v>
       </c>
       <c r="B164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164">
         <v>4064774</v>
@@ -3478,7 +3475,7 @@
         <v>2018</v>
       </c>
       <c r="B165" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C165">
         <v>1055774</v>
@@ -3495,7 +3492,7 @@
         <v>2018</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166">
         <v>1027313</v>
@@ -3512,7 +3509,7 @@
         <v>2018</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C167">
         <v>670932</v>
@@ -3529,7 +3526,7 @@
         <v>2018</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168">
         <v>8358220</v>
@@ -3546,7 +3543,7 @@
         <v>2018</v>
       </c>
       <c r="B169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C169">
         <v>522000</v>
@@ -3563,7 +3560,7 @@
         <v>2018</v>
       </c>
       <c r="B170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C170">
         <v>368601</v>
@@ -3580,7 +3577,7 @@
         <v>2018</v>
       </c>
       <c r="B171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C171">
         <v>1575808</v>
@@ -3597,7 +3594,7 @@
         <v>2018</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C172">
         <v>451600</v>
@@ -3614,7 +3611,7 @@
         <v>2018</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C173">
         <v>234151</v>
@@ -3631,7 +3628,7 @@
         <v>2018</v>
       </c>
       <c r="B174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C174">
         <v>476769</v>
@@ -3648,7 +3645,7 @@
         <v>2018</v>
       </c>
       <c r="B175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C175">
         <v>1563572</v>
@@ -3665,7 +3662,7 @@
         <v>2018</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C176">
         <v>56303</v>
@@ -3682,7 +3679,7 @@
         <v>2018</v>
       </c>
       <c r="B177" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C177">
         <v>1090000</v>
@@ -3699,7 +3696,7 @@
         <v>2018</v>
       </c>
       <c r="B178" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C178">
         <v>209378</v>
@@ -3716,7 +3713,7 @@
         <v>2018</v>
       </c>
       <c r="B179" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C179">
         <v>321097</v>
@@ -3733,7 +3730,7 @@
         <v>2018</v>
       </c>
       <c r="B180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C180">
         <v>3661730</v>
@@ -3750,7 +3747,7 @@
         <v>2018</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C181">
         <v>2267396</v>
@@ -3767,7 +3764,7 @@
         <v>2018</v>
       </c>
       <c r="B182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182">
         <v>190052</v>
@@ -3784,7 +3781,7 @@
         <v>2018</v>
       </c>
       <c r="B183" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C183">
         <v>877015</v>
@@ -3801,7 +3798,7 @@
         <v>2018</v>
       </c>
       <c r="B184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C184">
         <v>1026461</v>
@@ -3818,7 +3815,7 @@
         <v>2018</v>
       </c>
       <c r="B185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C185">
         <v>5660</v>
@@ -3835,7 +3832,7 @@
         <v>2018</v>
       </c>
       <c r="B186" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C186">
         <v>1519440</v>
@@ -3869,7 +3866,7 @@
         <v>2018</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C188">
         <v>220667</v>
@@ -3886,7 +3883,7 @@
         <v>2017</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C189">
         <v>203700</v>
@@ -3903,7 +3900,7 @@
         <v>2017</v>
       </c>
       <c r="B190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C190">
         <v>88195</v>
@@ -3920,7 +3917,7 @@
         <v>2017</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191">
         <v>81000</v>
@@ -3937,7 +3934,7 @@
         <v>2017</v>
       </c>
       <c r="B192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C192">
         <v>336000</v>
@@ -3954,7 +3951,7 @@
         <v>2017</v>
       </c>
       <c r="B193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C193">
         <v>2269468</v>
@@ -3971,7 +3968,7 @@
         <v>2017</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C194">
         <v>749458</v>
@@ -3988,7 +3985,7 @@
         <v>2017</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C195">
         <v>24806687</v>
@@ -4005,7 +4002,7 @@
         <v>2017</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C196">
         <v>1413881</v>
@@ -4022,7 +4019,7 @@
         <v>2017</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C197">
         <v>9970</v>
@@ -4039,7 +4036,7 @@
         <v>2017</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C198">
         <v>91598</v>
@@ -4056,7 +4053,7 @@
         <v>2017</v>
       </c>
       <c r="B199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C199">
         <v>1748000</v>
@@ -4073,7 +4070,7 @@
         <v>2017</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C200">
         <v>5645581</v>
@@ -4090,7 +4087,7 @@
         <v>2017</v>
       </c>
       <c r="B201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C201">
         <v>502000</v>
@@ -4107,7 +4104,7 @@
         <v>2017</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C202">
         <v>3952550</v>
@@ -4124,7 +4121,7 @@
         <v>2017</v>
       </c>
       <c r="B203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C203">
         <v>982356</v>
@@ -4141,7 +4138,7 @@
         <v>2017</v>
       </c>
       <c r="B204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C204">
         <v>1418550</v>
@@ -4158,7 +4155,7 @@
         <v>2017</v>
       </c>
       <c r="B205" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C205">
         <v>742642</v>
@@ -4175,7 +4172,7 @@
         <v>2017</v>
       </c>
       <c r="B206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C206">
         <v>8347836</v>
@@ -4192,7 +4189,7 @@
         <v>2017</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C207">
         <v>424880</v>
@@ -4209,7 +4206,7 @@
         <v>2017</v>
       </c>
       <c r="B208" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C208">
         <v>341802</v>
@@ -4226,7 +4223,7 @@
         <v>2017</v>
       </c>
       <c r="B209" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C209">
         <v>1900029</v>
@@ -4243,7 +4240,7 @@
         <v>2017</v>
       </c>
       <c r="B210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C210">
         <v>155000</v>
@@ -4260,7 +4257,7 @@
         <v>2017</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C211">
         <v>514700</v>
@@ -4277,7 +4274,7 @@
         <v>2017</v>
       </c>
       <c r="B212" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C212">
         <v>126426</v>
@@ -4294,7 +4291,7 @@
         <v>2017</v>
       </c>
       <c r="B213" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C213">
         <v>359240</v>
@@ -4311,7 +4308,7 @@
         <v>2017</v>
       </c>
       <c r="B214" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C214">
         <v>1348029</v>
@@ -4328,7 +4325,7 @@
         <v>2017</v>
       </c>
       <c r="B215" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C215">
         <v>79360</v>
@@ -4345,7 +4342,7 @@
         <v>2017</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C216">
         <v>1001520</v>
@@ -4362,7 +4359,7 @@
         <v>2017</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C217">
         <v>189852</v>
@@ -4379,7 +4376,7 @@
         <v>2017</v>
       </c>
       <c r="B218" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C218">
         <v>321358</v>
@@ -4396,7 +4393,7 @@
         <v>2017</v>
       </c>
       <c r="B219" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C219">
         <v>3735399</v>
@@ -4413,7 +4410,7 @@
         <v>2017</v>
       </c>
       <c r="B220" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220">
         <v>2291492</v>
@@ -4430,7 +4427,7 @@
         <v>2017</v>
       </c>
       <c r="B221" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C221">
         <v>226000</v>
@@ -4447,7 +4444,7 @@
         <v>2017</v>
       </c>
       <c r="B222" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C222">
         <v>230356</v>
@@ -4464,7 +4461,7 @@
         <v>2017</v>
       </c>
       <c r="B223" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C223">
         <v>818440</v>
@@ -4481,7 +4478,7 @@
         <v>2017</v>
       </c>
       <c r="B224" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C224">
         <v>1142906</v>
@@ -4498,7 +4495,7 @@
         <v>2017</v>
       </c>
       <c r="B225" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C225">
         <v>7296</v>
@@ -4515,7 +4512,7 @@
         <v>2017</v>
       </c>
       <c r="B226" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C226">
         <v>1671166</v>
@@ -4549,7 +4546,7 @@
         <v>2017</v>
       </c>
       <c r="B228" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C228">
         <v>140247</v>
@@ -4566,7 +4563,7 @@
         <v>2017</v>
       </c>
       <c r="B229" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C229">
         <v>536725</v>
@@ -4583,7 +4580,7 @@
         <v>2016</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C230" s="1">
         <v>241315</v>
@@ -4600,7 +4597,7 @@
         <v>2016</v>
       </c>
       <c r="B231" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C231" s="1">
         <v>149000</v>
@@ -4617,7 +4614,7 @@
         <v>2016</v>
       </c>
       <c r="B232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C232" s="1">
         <v>90000</v>
@@ -4634,7 +4631,7 @@
         <v>2016</v>
       </c>
       <c r="B233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C233" s="1">
         <v>354003</v>
@@ -4651,7 +4648,7 @@
         <v>2016</v>
       </c>
       <c r="B234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C234" s="1">
         <v>1778464</v>
@@ -4668,7 +4665,7 @@
         <v>2016</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C235" s="1">
         <v>802057</v>
@@ -4685,7 +4682,7 @@
         <v>2016</v>
       </c>
       <c r="B236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C236" s="1">
         <v>24420744</v>
@@ -4702,7 +4699,7 @@
         <v>2016</v>
       </c>
       <c r="B237" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C237" s="1">
         <v>1344182</v>
@@ -4719,7 +4716,7 @@
         <v>2016</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C238" s="1">
         <v>10930</v>
@@ -4736,7 +4733,7 @@
         <v>2016</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C239" s="1">
         <v>55280</v>
@@ -4753,7 +4750,7 @@
         <v>2016</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C240" s="1">
         <v>1626000</v>
@@ -4770,7 +4767,7 @@
         <v>2016</v>
       </c>
       <c r="B241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C241" s="1">
         <v>5746808</v>
@@ -4787,7 +4784,7 @@
         <v>2016</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C242" s="1">
         <v>472000</v>
@@ -4804,7 +4801,7 @@
         <v>2016</v>
       </c>
       <c r="B243" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C243" s="1">
         <v>3677605</v>
@@ -4821,7 +4818,7 @@
         <v>2016</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C244" s="1">
         <v>968101</v>
@@ -4838,7 +4835,7 @@
         <v>2016</v>
       </c>
       <c r="B245" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C245" s="1">
         <v>1074000</v>
@@ -4855,7 +4852,7 @@
         <v>2016</v>
       </c>
       <c r="B246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C246" s="1">
         <v>713182</v>
@@ -4872,7 +4869,7 @@
         <v>2016</v>
       </c>
       <c r="B247" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C247" s="1">
         <v>7873886</v>
@@ -4889,7 +4886,7 @@
         <v>2016</v>
       </c>
       <c r="B248" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C248" s="1">
         <v>469720</v>
@@ -4906,7 +4903,7 @@
         <v>2016</v>
       </c>
       <c r="B249" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C249" s="1">
         <v>1993168</v>
@@ -4923,7 +4920,7 @@
         <v>2016</v>
       </c>
       <c r="B250" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C250" s="1">
         <v>42150</v>
@@ -4940,7 +4937,7 @@
         <v>2016</v>
       </c>
       <c r="B251" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C251" s="1">
         <v>554600</v>
@@ -4957,7 +4954,7 @@
         <v>2016</v>
       </c>
       <c r="B252" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C252" s="1">
         <v>99200</v>
@@ -4974,7 +4971,7 @@
         <v>2016</v>
       </c>
       <c r="B253" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C253" s="1">
         <v>358861</v>
@@ -4991,7 +4988,7 @@
         <v>2016</v>
       </c>
       <c r="B254" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C254" s="1">
         <v>1124774</v>
@@ -5008,7 +5005,7 @@
         <v>2016</v>
       </c>
       <c r="B255" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C255" s="1">
         <v>79360</v>
@@ -5025,7 +5022,7 @@
         <v>2016</v>
       </c>
       <c r="B256" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C256" s="1">
         <v>1040000</v>
@@ -5042,7 +5039,7 @@
         <v>2016</v>
       </c>
       <c r="B257" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C257" s="1">
         <v>133702</v>
@@ -5059,7 +5056,7 @@
         <v>2016</v>
       </c>
       <c r="B258" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C258" s="1">
         <v>335539</v>
@@ -5076,7 +5073,7 @@
         <v>2016</v>
       </c>
       <c r="B259" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C259" s="1">
         <v>3859991</v>
@@ -5093,7 +5090,7 @@
         <v>2016</v>
       </c>
       <c r="B260" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C260" s="1">
         <v>2354117</v>
@@ -5110,13 +5107,13 @@
         <v>2016</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C261" s="1">
         <v>205374</v>
       </c>
       <c r="D261" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E261" s="1">
         <v>205374</v>
@@ -5127,7 +5124,7 @@
         <v>2016</v>
       </c>
       <c r="B262" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C262" s="1">
         <v>251096</v>
@@ -5144,7 +5141,7 @@
         <v>2016</v>
       </c>
       <c r="B263" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C263" s="1">
         <v>805033</v>
@@ -5161,7 +5158,7 @@
         <v>2016</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C264" s="1">
         <v>950888</v>
@@ -5178,7 +5175,7 @@
         <v>2016</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C265" s="1">
         <v>4340</v>
@@ -5195,7 +5192,7 @@
         <v>2016</v>
       </c>
       <c r="B266" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C266" s="1">
         <v>1722698</v>
@@ -5229,7 +5226,7 @@
         <v>2016</v>
       </c>
       <c r="B268" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C268" s="1">
         <v>88152</v>
@@ -5246,7 +5243,7 @@
         <v>2016</v>
       </c>
       <c r="B269" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C269" s="1">
         <v>781708</v>
@@ -5263,7 +5260,7 @@
         <v>2015</v>
       </c>
       <c r="B270" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C270" s="1">
         <v>308756</v>
@@ -5280,7 +5277,7 @@
         <v>2015</v>
       </c>
       <c r="B271" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="1">
         <v>159872</v>
@@ -5297,7 +5294,7 @@
         <v>2015</v>
       </c>
       <c r="B272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C272" s="1">
         <v>109000</v>
@@ -5314,7 +5311,7 @@
         <v>2015</v>
       </c>
       <c r="B273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C273" s="1">
         <v>369172</v>
@@ -5331,7 +5328,7 @@
         <v>2015</v>
       </c>
       <c r="B274" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C274" s="1">
         <v>2018954</v>
@@ -5348,7 +5345,7 @@
         <v>2015</v>
       </c>
       <c r="B275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C275" s="1">
         <v>888565</v>
@@ -5365,7 +5362,7 @@
         <v>2015</v>
       </c>
       <c r="B276" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C276" s="1">
         <v>21079427</v>
@@ -5382,7 +5379,7 @@
         <v>2015</v>
       </c>
       <c r="B277" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C277" s="1">
         <v>1298236</v>
@@ -5399,7 +5396,7 @@
         <v>2015</v>
       </c>
       <c r="B278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C278" s="1">
         <v>12000</v>
@@ -5416,7 +5413,7 @@
         <v>2015</v>
       </c>
       <c r="B279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C279" s="1">
         <v>69000</v>
@@ -5433,7 +5430,7 @@
         <v>2015</v>
       </c>
       <c r="B280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C280" s="1">
         <v>1553800</v>
@@ -5450,7 +5447,7 @@
         <v>2015</v>
       </c>
       <c r="B281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C281" s="1">
         <v>5707938</v>
@@ -5467,7 +5464,7 @@
         <v>2015</v>
       </c>
       <c r="B282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C282" s="1">
         <v>491720</v>
@@ -5484,7 +5481,7 @@
         <v>2015</v>
       </c>
       <c r="B283" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C283" s="1">
         <v>3378063</v>
@@ -5501,7 +5498,7 @@
         <v>2015</v>
       </c>
       <c r="B284" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C284" s="1">
         <v>824445</v>
@@ -5518,7 +5515,7 @@
         <v>2015</v>
       </c>
       <c r="B285" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C285" s="1">
         <v>884866</v>
@@ -5535,7 +5532,7 @@
         <v>2015</v>
       </c>
       <c r="B286" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C286" s="1">
         <v>663139</v>
@@ -5552,7 +5549,7 @@
         <v>2015</v>
       </c>
       <c r="B287" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C287" s="1">
         <v>7830722</v>
@@ -5569,7 +5566,7 @@
         <v>2015</v>
       </c>
       <c r="B288" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C288" s="1">
         <v>558324</v>
@@ -5586,7 +5583,7 @@
         <v>2015</v>
       </c>
       <c r="B289" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C289" s="1">
         <v>1968054</v>
@@ -5603,7 +5600,7 @@
         <v>2015</v>
       </c>
       <c r="B290" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C290" s="1">
         <v>41870</v>
@@ -5620,7 +5617,7 @@
         <v>2015</v>
       </c>
       <c r="B291" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C291" s="1">
         <v>534700</v>
@@ -5637,7 +5634,7 @@
         <v>2015</v>
       </c>
       <c r="B292" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C292" s="1">
         <v>115468</v>
@@ -5654,7 +5651,7 @@
         <v>2015</v>
       </c>
       <c r="B293" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C293" s="1">
         <v>387171</v>
@@ -5671,7 +5668,7 @@
         <v>2015</v>
       </c>
       <c r="B294" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C294" s="1">
         <v>1214849</v>
@@ -5688,7 +5685,7 @@
         <v>2015</v>
       </c>
       <c r="B295" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C295" s="1">
         <v>82400</v>
@@ -5705,7 +5702,7 @@
         <v>2015</v>
       </c>
       <c r="B296" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C296" s="1">
         <v>1000001</v>
@@ -5722,7 +5719,7 @@
         <v>2015</v>
       </c>
       <c r="B297" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C297" s="1">
         <v>133092</v>
@@ -5739,7 +5736,7 @@
         <v>2015</v>
       </c>
       <c r="B298" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C298" s="1">
         <v>341025</v>
@@ -5756,7 +5753,7 @@
         <v>2015</v>
       </c>
       <c r="B299" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C299" s="1">
         <v>4135108</v>
@@ -5773,7 +5770,7 @@
         <v>2015</v>
       </c>
       <c r="B300" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C300" s="1">
         <v>2218980</v>
@@ -5790,13 +5787,13 @@
         <v>2015</v>
       </c>
       <c r="B301" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C301" s="1">
         <v>188987</v>
       </c>
       <c r="D301" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E301" s="1">
         <v>188987</v>
@@ -5807,7 +5804,7 @@
         <v>2015</v>
       </c>
       <c r="B302" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C302" s="1">
         <v>298418</v>
@@ -5824,7 +5821,7 @@
         <v>2015</v>
       </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C303" s="1">
         <v>772250</v>
@@ -5841,7 +5838,7 @@
         <v>2015</v>
       </c>
       <c r="B304" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C304" s="1">
         <v>791027</v>
@@ -5858,7 +5855,7 @@
         <v>2015</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C305" s="1">
         <v>5654</v>
@@ -5875,7 +5872,7 @@
         <v>2015</v>
       </c>
       <c r="B306" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C306" s="1">
         <v>1587677</v>
@@ -5909,7 +5906,7 @@
         <v>2015</v>
       </c>
       <c r="B308" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C308" s="1">
         <v>185400</v>
@@ -5926,7 +5923,7 @@
         <v>2015</v>
       </c>
       <c r="B309" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C309" s="1">
         <v>693817</v>
@@ -5943,7 +5940,7 @@
         <v>2014</v>
       </c>
       <c r="B310" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C310" s="1">
         <v>363711</v>
@@ -5960,7 +5957,7 @@
         <v>2014</v>
       </c>
       <c r="B311" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C311" s="1">
         <v>166933</v>
@@ -5977,7 +5974,7 @@
         <v>2014</v>
       </c>
       <c r="B312" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C312" s="1">
         <v>136000</v>
@@ -5994,7 +5991,7 @@
         <v>2014</v>
       </c>
       <c r="B313" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C313" s="1">
         <v>481636</v>
@@ -6011,7 +6008,7 @@
         <v>2014</v>
       </c>
       <c r="B314" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C314" s="1">
         <v>2502293</v>
@@ -6028,7 +6025,7 @@
         <v>2014</v>
       </c>
       <c r="B315" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C315" s="1">
         <v>913533</v>
@@ -6045,7 +6042,7 @@
         <v>2014</v>
       </c>
       <c r="B316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C316" s="1">
         <v>19928505</v>
@@ -6062,7 +6059,7 @@
         <v>2014</v>
       </c>
       <c r="B317" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C317" s="1">
         <v>1246506</v>
@@ -6079,7 +6076,7 @@
         <v>2014</v>
       </c>
       <c r="B318" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C318" s="1">
         <v>17542</v>
@@ -6096,7 +6093,7 @@
         <v>2014</v>
       </c>
       <c r="B319" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C319" s="1">
         <v>45000</v>
@@ -6113,7 +6110,7 @@
         <v>2014</v>
       </c>
       <c r="B320" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C320" s="1">
         <v>1499464</v>
@@ -6130,7 +6127,7 @@
         <v>2014</v>
       </c>
       <c r="B321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C321" s="1">
         <v>5604026</v>
@@ -6147,7 +6144,7 @@
         <v>2014</v>
       </c>
       <c r="B322" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C322" s="1">
         <v>434069</v>
@@ -6164,7 +6161,7 @@
         <v>2014</v>
       </c>
       <c r="B323" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C323" s="1">
         <v>3162372</v>
@@ -6181,7 +6178,7 @@
         <v>2014</v>
       </c>
       <c r="B324" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C324" s="1">
         <v>1013172</v>
@@ -6198,7 +6195,7 @@
         <v>2014</v>
       </c>
       <c r="B325" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C325" s="1">
         <v>925975</v>
@@ -6215,7 +6212,7 @@
         <v>2014</v>
       </c>
       <c r="B326" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C326" s="1">
         <v>401317</v>
@@ -6232,7 +6229,7 @@
         <v>2014</v>
       </c>
       <c r="B327" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C327" s="1">
         <v>8277070</v>
@@ -6249,7 +6246,7 @@
         <v>2014</v>
       </c>
       <c r="B328" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C328" s="1">
         <v>545122</v>
@@ -6266,7 +6263,7 @@
         <v>2014</v>
       </c>
       <c r="B329" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C329" s="1">
         <v>1915709</v>
@@ -6283,7 +6280,7 @@
         <v>2014</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C330" s="1">
         <v>29196</v>
@@ -6300,7 +6297,7 @@
         <v>2014</v>
       </c>
       <c r="B331" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C331" s="1">
         <v>472600</v>
@@ -6317,7 +6314,7 @@
         <v>2014</v>
       </c>
       <c r="B332" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C332" s="1">
         <v>117744</v>
@@ -6334,7 +6331,7 @@
         <v>2014</v>
       </c>
       <c r="B333" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C333" s="1">
         <v>391422</v>
@@ -6351,7 +6348,7 @@
         <v>2014</v>
       </c>
       <c r="B334" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C334" s="1">
         <v>1682921</v>
@@ -6368,7 +6365,7 @@
         <v>2014</v>
       </c>
       <c r="B335" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C335" s="1">
         <v>101576</v>
@@ -6385,7 +6382,7 @@
         <v>2014</v>
       </c>
       <c r="B336" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C336" s="1">
         <v>971160</v>
@@ -6402,7 +6399,7 @@
         <v>2014</v>
       </c>
       <c r="B337" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C337" s="1">
         <v>118533</v>
@@ -6419,7 +6416,7 @@
         <v>2014</v>
       </c>
       <c r="B338" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C338" s="1">
         <v>277491</v>
@@ -6436,7 +6433,7 @@
         <v>2014</v>
       </c>
       <c r="B339" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C339" s="1">
         <v>4124116</v>
@@ -6453,7 +6450,7 @@
         <v>2014</v>
       </c>
       <c r="B340" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C340" s="1">
         <v>1898342</v>
@@ -6470,13 +6467,13 @@
         <v>2014</v>
       </c>
       <c r="B341" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C341" s="1">
         <v>154174</v>
       </c>
       <c r="D341" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E341" s="1">
         <v>154174</v>
@@ -6487,7 +6484,7 @@
         <v>2014</v>
       </c>
       <c r="B342" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C342" s="1">
         <v>332629</v>
@@ -6504,7 +6501,7 @@
         <v>2014</v>
       </c>
       <c r="B343" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C343" s="1">
         <v>743258</v>
@@ -6521,7 +6518,7 @@
         <v>2014</v>
       </c>
       <c r="B344" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C344" s="1">
         <v>733439</v>
@@ -6538,7 +6535,7 @@
         <v>2014</v>
       </c>
       <c r="B345" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C345" s="1">
         <v>25941</v>
@@ -6555,7 +6552,7 @@
         <v>2014</v>
       </c>
       <c r="B346" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C346" s="1">
         <v>1528148</v>
@@ -6589,7 +6586,7 @@
         <v>2014</v>
       </c>
       <c r="B348" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C348" s="1">
         <v>245660</v>
@@ -6606,7 +6603,7 @@
         <v>2014</v>
       </c>
       <c r="B349" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C349" s="1">
         <v>584144</v>
@@ -6623,7 +6620,7 @@
         <v>2013</v>
       </c>
       <c r="B350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C350" s="1">
         <v>506539</v>
@@ -6640,7 +6637,7 @@
         <v>2013</v>
       </c>
       <c r="B351" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C351" s="1">
         <v>170808</v>
@@ -6657,7 +6654,7 @@
         <v>2013</v>
       </c>
       <c r="B352" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C352" s="1">
         <v>146566</v>
@@ -6674,7 +6671,7 @@
         <v>2013</v>
       </c>
       <c r="B353" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C353" s="1">
         <v>465504</v>
@@ -6691,7 +6688,7 @@
         <v>2013</v>
       </c>
       <c r="B354" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C354" s="1">
         <v>2722979</v>
@@ -6708,7 +6705,7 @@
         <v>2013</v>
       </c>
       <c r="B355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C355" s="1">
         <v>965191</v>
@@ -6725,7 +6722,7 @@
         <v>2013</v>
       </c>
       <c r="B356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C356" s="1">
         <v>18084169</v>
@@ -6742,7 +6739,7 @@
         <v>2013</v>
       </c>
       <c r="B357" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C357" s="1">
         <v>1128473</v>
@@ -6759,7 +6756,7 @@
         <v>2013</v>
       </c>
       <c r="B358" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C358" s="1">
         <v>13777</v>
@@ -6776,7 +6773,7 @@
         <v>2013</v>
       </c>
       <c r="B359" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C359" s="1">
         <v>7600</v>
@@ -6793,7 +6790,7 @@
         <v>2013</v>
       </c>
       <c r="B360" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C360" s="1">
         <v>1458220</v>
@@ -6810,7 +6807,7 @@
         <v>2013</v>
       </c>
       <c r="B361" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C361" s="1">
         <v>5439904</v>
@@ -6827,7 +6824,7 @@
         <v>2013</v>
       </c>
       <c r="B362" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C362" s="1">
         <v>317857</v>
@@ -6844,7 +6841,7 @@
         <v>2013</v>
       </c>
       <c r="B363" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C363" s="1">
         <v>3155694</v>
@@ -6861,7 +6858,7 @@
         <v>2013</v>
       </c>
       <c r="B364" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C364" s="1">
         <v>924753</v>
@@ -6878,7 +6875,7 @@
         <v>2013</v>
       </c>
       <c r="B365" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C365" s="1">
         <v>630639</v>
@@ -6895,7 +6892,7 @@
         <v>2013</v>
       </c>
       <c r="B366" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C366" s="1">
         <v>388465</v>
@@ -6912,7 +6909,7 @@
         <v>2013</v>
       </c>
       <c r="B367" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C367" s="1">
         <v>8189323</v>
@@ -6929,7 +6926,7 @@
         <v>2013</v>
       </c>
       <c r="B368" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C368" s="1">
         <v>543892</v>
@@ -6946,7 +6943,7 @@
         <v>2013</v>
       </c>
       <c r="B369" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C369" s="1">
         <v>1771987</v>
@@ -6963,7 +6960,7 @@
         <v>2013</v>
       </c>
       <c r="B370" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -6980,7 +6977,7 @@
         <v>2013</v>
       </c>
       <c r="B371" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C371" s="1">
         <v>475000</v>
@@ -6997,7 +6994,7 @@
         <v>2013</v>
       </c>
       <c r="B372" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C372" s="1">
         <v>109698</v>
@@ -7014,7 +7011,7 @@
         <v>2013</v>
       </c>
       <c r="B373" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C373" s="1">
         <v>410959</v>
@@ -7031,7 +7028,7 @@
         <v>2013</v>
       </c>
       <c r="B374" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C374" s="1">
         <v>1927578</v>
@@ -7048,7 +7045,7 @@
         <v>2013</v>
       </c>
       <c r="B375" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C375" s="1">
         <v>113487</v>
@@ -7065,7 +7062,7 @@
         <v>2013</v>
       </c>
       <c r="B376" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C376" s="1">
         <v>975000</v>
@@ -7082,7 +7079,7 @@
         <v>2013</v>
       </c>
       <c r="B377" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C377" s="1">
         <v>89395</v>
@@ -7099,7 +7096,7 @@
         <v>2013</v>
       </c>
       <c r="B378" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C378" s="1">
         <v>265257</v>
@@ -7116,7 +7113,7 @@
         <v>2013</v>
       </c>
       <c r="B379" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C379" s="1">
         <v>4122604</v>
@@ -7133,7 +7130,7 @@
         <v>2013</v>
       </c>
       <c r="B380" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C380" s="1">
         <v>1754668</v>
@@ -7150,13 +7147,13 @@
         <v>2013</v>
       </c>
       <c r="B381" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C381" s="1">
         <v>161080</v>
       </c>
       <c r="D381" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E381" s="1">
         <v>161080</v>
@@ -7167,7 +7164,7 @@
         <v>2013</v>
       </c>
       <c r="B382" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C382" s="1">
         <v>291037</v>
@@ -7184,7 +7181,7 @@
         <v>2013</v>
       </c>
       <c r="B383" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C383" s="1">
         <v>1071076</v>
@@ -7201,7 +7198,7 @@
         <v>2013</v>
       </c>
       <c r="B384" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C384" s="1">
         <v>633604</v>
@@ -7218,7 +7215,7 @@
         <v>2013</v>
       </c>
       <c r="B385" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C385" s="1">
         <v>45758</v>
@@ -7235,7 +7232,7 @@
         <v>2013</v>
       </c>
       <c r="B386" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C386" s="1">
         <v>1509762</v>
@@ -7269,7 +7266,7 @@
         <v>2013</v>
       </c>
       <c r="B388" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C388" s="1">
         <v>246641</v>
@@ -7286,7 +7283,7 @@
         <v>2013</v>
       </c>
       <c r="B389" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C389" s="1">
         <v>523679</v>
@@ -7303,7 +7300,7 @@
         <v>2012</v>
       </c>
       <c r="B390" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C390" s="1">
         <v>497376</v>
@@ -7320,7 +7317,7 @@
         <v>2012</v>
       </c>
       <c r="B391" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C391" s="1">
         <v>189949</v>
@@ -7337,7 +7334,7 @@
         <v>2012</v>
       </c>
       <c r="B392" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C392" s="1">
         <v>123602</v>
@@ -7354,7 +7351,7 @@
         <v>2012</v>
       </c>
       <c r="B393" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C393" s="1">
         <v>504616</v>
@@ -7371,7 +7368,7 @@
         <v>2012</v>
       </c>
       <c r="B394" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C394" s="1">
         <v>2589236</v>
@@ -7388,7 +7385,7 @@
         <v>2012</v>
       </c>
       <c r="B395" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C395" s="1">
         <v>1040298</v>
@@ -7405,7 +7402,7 @@
         <v>2012</v>
       </c>
       <c r="B396" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C396" s="1">
         <v>15523658</v>
@@ -7422,7 +7419,7 @@
         <v>2012</v>
       </c>
       <c r="B397" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C397" s="1">
         <v>1171774</v>
@@ -7439,7 +7436,7 @@
         <v>2012</v>
       </c>
       <c r="B398" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C398" s="1">
         <v>36880</v>
@@ -7456,7 +7453,7 @@
         <v>2012</v>
       </c>
       <c r="B399" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C399" s="1">
         <v>8600</v>
@@ -7473,7 +7470,7 @@
         <v>2012</v>
       </c>
       <c r="B400" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C400" s="1">
         <v>1682814</v>
@@ -7490,7 +7487,7 @@
         <v>2012</v>
       </c>
       <c r="B401" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C401" s="1">
         <v>5388459</v>
@@ -7507,7 +7504,7 @@
         <v>2012</v>
       </c>
       <c r="B402" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C402" s="1">
         <v>215440</v>
@@ -7524,7 +7521,7 @@
         <v>2012</v>
       </c>
       <c r="B403" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C403" s="1">
         <v>3296240</v>
@@ -7541,7 +7538,7 @@
         <v>2012</v>
       </c>
       <c r="B404" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C404" s="1">
         <v>745144</v>
@@ -7558,7 +7555,7 @@
         <v>2012</v>
       </c>
       <c r="B405" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C405" s="1">
         <v>856927</v>
@@ -7575,7 +7572,7 @@
         <v>2012</v>
       </c>
       <c r="B406" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C406" s="1">
         <v>396817</v>
@@ -7592,7 +7589,7 @@
         <v>2012</v>
       </c>
       <c r="B407" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C407" s="1">
         <v>8554503</v>
@@ -7609,7 +7606,7 @@
         <v>2012</v>
       </c>
       <c r="B408" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C408" s="1">
         <v>509621</v>
@@ -7626,7 +7623,7 @@
         <v>2012</v>
       </c>
       <c r="B409" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C409" s="1">
         <v>1810007</v>
@@ -7643,7 +7640,7 @@
         <v>2012</v>
       </c>
       <c r="B410" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C410" s="1">
         <v>24895</v>
@@ -7660,7 +7657,7 @@
         <v>2012</v>
       </c>
       <c r="B411" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C411" s="1">
         <v>539671</v>
@@ -7677,7 +7674,7 @@
         <v>2012</v>
       </c>
       <c r="B412" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C412" s="1">
         <v>115735</v>
@@ -7694,7 +7691,7 @@
         <v>2012</v>
       </c>
       <c r="B413" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C413" s="1">
         <v>326556</v>
@@ -7711,7 +7708,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C414" s="1">
         <v>1970087</v>
@@ -7728,7 +7725,7 @@
         <v>2012</v>
       </c>
       <c r="B415" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C415" s="1">
         <v>10227</v>
@@ -7745,7 +7742,7 @@
         <v>2012</v>
       </c>
       <c r="B416" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C416" s="1">
         <v>926555</v>
@@ -7762,7 +7759,7 @@
         <v>2012</v>
       </c>
       <c r="B417" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C417" s="1">
         <v>126836</v>
@@ -7779,7 +7776,7 @@
         <v>2012</v>
       </c>
       <c r="B418" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C418" s="1">
         <v>274873</v>
@@ -7796,7 +7793,7 @@
         <v>2012</v>
       </c>
       <c r="B419" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C419" s="1">
         <v>4167089</v>
@@ -7813,7 +7810,7 @@
         <v>2012</v>
       </c>
       <c r="B420" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C420" s="1">
         <v>1539680</v>
@@ -7830,13 +7827,13 @@
         <v>2012</v>
       </c>
       <c r="B421" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C421" s="1">
         <v>162814</v>
       </c>
       <c r="D421" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E421" s="1">
         <v>162814</v>
@@ -7847,7 +7844,7 @@
         <v>2012</v>
       </c>
       <c r="B422" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C422" s="1">
         <v>278043</v>
@@ -7864,7 +7861,7 @@
         <v>2012</v>
       </c>
       <c r="B423" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C423" s="1">
         <v>945100</v>
@@ -7881,7 +7878,7 @@
         <v>2012</v>
       </c>
       <c r="B424" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C424" s="1">
         <v>577296</v>
@@ -7898,7 +7895,7 @@
         <v>2012</v>
       </c>
       <c r="B425" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C425" s="1">
         <v>69687</v>
@@ -7915,7 +7912,7 @@
         <v>2012</v>
       </c>
       <c r="B426" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C426" s="1">
         <v>1464906</v>
@@ -7949,7 +7946,7 @@
         <v>2012</v>
       </c>
       <c r="B428" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C428" s="1">
         <v>144980</v>
@@ -7966,7 +7963,7 @@
         <v>2012</v>
       </c>
       <c r="B429" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C429" s="1">
         <v>463990</v>
@@ -7983,7 +7980,7 @@
         <v>2011</v>
       </c>
       <c r="B430" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C430" s="1">
         <v>577233</v>
@@ -8000,7 +7997,7 @@
         <v>2011</v>
       </c>
       <c r="B431" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C431" s="1">
         <v>189503</v>
@@ -8017,7 +8014,7 @@
         <v>2011</v>
       </c>
       <c r="B432" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C432" s="1">
         <v>130343</v>
@@ -8034,7 +8031,7 @@
         <v>2011</v>
       </c>
       <c r="B433" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C433" s="1">
         <v>560779</v>
@@ -8051,7 +8048,7 @@
         <v>2011</v>
       </c>
       <c r="B434" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C434" s="1">
         <v>2519389</v>
@@ -8068,7 +8065,7 @@
         <v>2011</v>
       </c>
       <c r="B435" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C435" s="1">
         <v>990482</v>
@@ -8085,7 +8082,7 @@
         <v>2011</v>
       </c>
       <c r="B436" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C436" s="1">
         <v>14485326</v>
@@ -8102,7 +8099,7 @@
         <v>2011</v>
       </c>
       <c r="B437" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C437" s="1">
         <v>1191968</v>
@@ -8119,7 +8116,7 @@
         <v>2011</v>
       </c>
       <c r="B438" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C438" s="1">
         <v>53072</v>
@@ -8136,7 +8133,7 @@
         <v>2011</v>
       </c>
       <c r="B439" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C439" s="1">
         <v>2540</v>
@@ -8153,7 +8150,7 @@
         <v>2011</v>
       </c>
       <c r="B440" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C440" s="1">
         <v>1931030</v>
@@ -8170,7 +8167,7 @@
         <v>2011</v>
       </c>
       <c r="B441" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C441" s="1">
         <v>5871918</v>
@@ -8187,7 +8184,7 @@
         <v>2011</v>
       </c>
       <c r="B442" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C442" s="1">
         <v>211218</v>
@@ -8204,7 +8201,7 @@
         <v>2011</v>
       </c>
       <c r="B443" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C443" s="1">
         <v>3040144</v>
@@ -8221,7 +8218,7 @@
         <v>2011</v>
       </c>
       <c r="B444" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C444" s="1">
         <v>562250</v>
@@ -8238,7 +8235,7 @@
         <v>2011</v>
       </c>
       <c r="B445" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C445" s="1">
         <v>1412803</v>
@@ -8255,7 +8252,7 @@
         <v>2011</v>
       </c>
       <c r="B446" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C446" s="1">
         <v>485606</v>
@@ -8272,7 +8269,7 @@
         <v>2011</v>
       </c>
       <c r="B447" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C447" s="1">
         <v>7158525</v>
@@ -8289,7 +8286,7 @@
         <v>2011</v>
       </c>
       <c r="B448" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C448" s="1">
         <v>488441</v>
@@ -8306,7 +8303,7 @@
         <v>2011</v>
       </c>
       <c r="B449" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C449" s="1">
         <v>1657080</v>
@@ -8323,7 +8320,7 @@
         <v>2011</v>
       </c>
       <c r="B450" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C450" s="1">
         <v>40772</v>
@@ -8340,7 +8337,7 @@
         <v>2011</v>
       </c>
       <c r="B451" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C451" s="1">
         <v>741000</v>
@@ -8357,7 +8354,7 @@
         <v>2011</v>
       </c>
       <c r="B452" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C452" s="1">
         <v>141779</v>
@@ -8374,7 +8371,7 @@
         <v>2011</v>
       </c>
       <c r="B453" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C453" s="1">
         <v>310243</v>
@@ -8391,7 +8388,7 @@
         <v>2011</v>
       </c>
       <c r="B454" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C454" s="1">
         <v>1744097</v>
@@ -8408,7 +8405,7 @@
         <v>2011</v>
       </c>
       <c r="B455" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C455" s="1">
         <v>10227</v>
@@ -8425,7 +8422,7 @@
         <v>2011</v>
       </c>
       <c r="B456" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C456" s="1">
         <v>639763</v>
@@ -8442,7 +8439,7 @@
         <v>2011</v>
       </c>
       <c r="B457" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C457" s="1">
         <v>168955</v>
@@ -8459,7 +8456,7 @@
         <v>2011</v>
       </c>
       <c r="B458" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C458" s="1">
         <v>312265</v>
@@ -8476,7 +8473,7 @@
         <v>2011</v>
       </c>
       <c r="B459" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C459" s="1">
         <v>4221617</v>
@@ -8493,7 +8490,7 @@
         <v>2011</v>
       </c>
       <c r="B460" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C460" s="1">
         <v>1839068</v>
@@ -8510,13 +8507,13 @@
         <v>2011</v>
       </c>
       <c r="B461" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C461" s="1">
         <v>188969</v>
       </c>
       <c r="D461" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E461" s="1">
         <v>188969</v>
@@ -8527,7 +8524,7 @@
         <v>2011</v>
       </c>
       <c r="B462" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C462" s="1">
         <v>288523</v>
@@ -8544,7 +8541,7 @@
         <v>2011</v>
       </c>
       <c r="B463" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C463" s="1">
         <v>537987</v>
@@ -8561,7 +8558,7 @@
         <v>2011</v>
       </c>
       <c r="B464" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C464" s="1">
         <v>639734</v>
@@ -8578,7 +8575,7 @@
         <v>2011</v>
       </c>
       <c r="B465" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C465" s="1">
         <v>97585</v>
@@ -8595,7 +8592,7 @@
         <v>2011</v>
       </c>
       <c r="B466" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C466" s="1">
         <v>1343810</v>
@@ -8629,7 +8626,7 @@
         <v>2011</v>
       </c>
       <c r="B468" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C468" s="1">
         <v>146300</v>
@@ -8646,7 +8643,7 @@
         <v>2011</v>
       </c>
       <c r="B469" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C469" s="1">
         <v>367138</v>
@@ -8663,7 +8660,7 @@
         <v>2010</v>
       </c>
       <c r="B470" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C470" s="1">
         <v>508401</v>
@@ -8680,7 +8677,7 @@
         <v>2010</v>
       </c>
       <c r="B471" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C471" s="1">
         <v>205334</v>
@@ -8697,7 +8694,7 @@
         <v>2010</v>
       </c>
       <c r="B472" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C472" s="1">
         <v>86183</v>
@@ -8714,7 +8711,7 @@
         <v>2010</v>
       </c>
       <c r="B473" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C473" s="1">
         <v>528996</v>
@@ -8731,7 +8728,7 @@
         <v>2010</v>
       </c>
       <c r="B474" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C474" s="1">
         <v>2584690</v>
@@ -8748,7 +8745,7 @@
         <v>2010</v>
       </c>
       <c r="B475" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C475" s="1">
         <v>967077</v>
@@ -8765,7 +8762,7 @@
         <v>2010</v>
       </c>
       <c r="B476" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C476" s="1">
         <v>13897083</v>
@@ -8782,7 +8779,7 @@
         <v>2010</v>
       </c>
       <c r="B477" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C477" s="1">
         <v>1069518</v>
@@ -8799,7 +8796,7 @@
         <v>2010</v>
       </c>
       <c r="B478" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C478" s="1">
         <v>76412</v>
@@ -8816,7 +8813,7 @@
         <v>2010</v>
       </c>
       <c r="B479" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C479" s="1">
         <v>6385</v>
@@ -8833,7 +8830,7 @@
         <v>2010</v>
       </c>
       <c r="B480" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C480" s="1">
         <v>1924171</v>
@@ -8850,7 +8847,7 @@
         <v>2010</v>
       </c>
       <c r="B481" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C481" s="1">
         <v>5552409</v>
@@ -8867,7 +8864,7 @@
         <v>2010</v>
       </c>
       <c r="B482" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C482" s="1">
         <v>208571</v>
@@ -8884,7 +8881,7 @@
         <v>2010</v>
       </c>
       <c r="B483" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C483" s="1">
         <v>2831542</v>
@@ -8901,7 +8898,7 @@
         <v>2010</v>
       </c>
       <c r="B484" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C484" s="1">
         <v>496524</v>
@@ -8918,7 +8915,7 @@
         <v>2010</v>
       </c>
       <c r="B485" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C485" s="1">
         <v>1367014</v>
@@ -8935,7 +8932,7 @@
         <v>2010</v>
       </c>
       <c r="B486" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C486" s="1">
         <v>573169</v>
@@ -8952,7 +8949,7 @@
         <v>2010</v>
       </c>
       <c r="B487" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C487" s="1">
         <v>8310362</v>
@@ -8969,7 +8966,7 @@
         <v>2010</v>
       </c>
       <c r="B488" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C488" s="1">
         <v>522568</v>
@@ -8986,7 +8983,7 @@
         <v>2010</v>
       </c>
       <c r="B489" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C489" s="1">
         <v>1386148</v>
@@ -9003,7 +9000,7 @@
         <v>2010</v>
       </c>
       <c r="B490" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C490" s="1">
         <v>48025</v>
@@ -9020,7 +9017,7 @@
         <v>2010</v>
       </c>
       <c r="B491" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C491" s="1">
         <v>785000</v>
@@ -9037,7 +9034,7 @@
         <v>2010</v>
       </c>
       <c r="B492" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C492" s="1">
         <v>114563</v>
@@ -9054,7 +9051,7 @@
         <v>2010</v>
       </c>
       <c r="B493" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C493" s="1">
         <v>323587</v>
@@ -9071,7 +9068,7 @@
         <v>2010</v>
       </c>
       <c r="B494" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C494" s="1">
         <v>1208362</v>
@@ -9088,7 +9085,7 @@
         <v>2010</v>
       </c>
       <c r="B495" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C495" s="1">
         <v>14551</v>
@@ -9105,7 +9102,7 @@
         <v>2010</v>
       </c>
       <c r="B496" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C496" s="1">
         <v>561933</v>
@@ -9122,7 +9119,7 @@
         <v>2010</v>
       </c>
       <c r="B497" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C497" s="1">
         <v>201039</v>
@@ -9139,7 +9136,7 @@
         <v>2010</v>
       </c>
       <c r="B498" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C498" s="1">
         <v>295394</v>
@@ -9156,7 +9153,7 @@
         <v>2010</v>
       </c>
       <c r="B499" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C499" s="1">
         <v>3866206</v>
@@ -9173,7 +9170,7 @@
         <v>2010</v>
       </c>
       <c r="B500" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C500" s="1">
         <v>1913513</v>
@@ -9190,7 +9187,7 @@
         <v>2010</v>
       </c>
       <c r="B501" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C501" s="1">
         <v>177084</v>
@@ -9207,7 +9204,7 @@
         <v>2010</v>
       </c>
       <c r="B502" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C502" s="1">
         <v>251490</v>
@@ -9224,7 +9221,7 @@
         <v>2010</v>
       </c>
       <c r="B503" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C503" s="1">
         <v>554387</v>
@@ -9241,7 +9238,7 @@
         <v>2010</v>
       </c>
       <c r="B504" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C504" s="1">
         <v>603394</v>
@@ -9258,7 +9255,7 @@
         <v>2010</v>
       </c>
       <c r="B505" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C505" s="1">
         <v>75261</v>
@@ -9275,7 +9272,7 @@
         <v>2010</v>
       </c>
       <c r="B506" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C506" s="1">
         <v>1270444</v>
@@ -9309,7 +9306,7 @@
         <v>2010</v>
       </c>
       <c r="B508" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C508" s="1">
         <v>130400</v>
@@ -9326,7 +9323,7 @@
         <v>2010</v>
       </c>
       <c r="B509" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C509" s="1">
         <v>373587</v>
@@ -9343,7 +9340,7 @@
         <v>2009</v>
       </c>
       <c r="B510" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C510" s="1">
         <v>380067</v>
@@ -9360,7 +9357,7 @@
         <v>2009</v>
       </c>
       <c r="B511" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C511" s="1">
         <v>188158</v>
@@ -9377,7 +9374,7 @@
         <v>2009</v>
       </c>
       <c r="B512" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C512" s="1">
         <v>56620</v>
@@ -9394,7 +9391,7 @@
         <v>2009</v>
       </c>
       <c r="B513" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C513" s="1">
         <v>524595</v>
@@ -9411,7 +9408,7 @@
         <v>2009</v>
       </c>
       <c r="B514" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C514" s="1">
         <v>2575418</v>
@@ -9428,7 +9425,7 @@
         <v>2009</v>
       </c>
       <c r="B515" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C515" s="1">
         <v>822267</v>
@@ -9445,7 +9442,7 @@
         <v>2009</v>
       </c>
       <c r="B516" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C516" s="1">
         <v>10383831</v>
@@ -9462,7 +9459,7 @@
         <v>2009</v>
       </c>
       <c r="B517" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C517" s="1">
         <v>976435</v>
@@ -9479,7 +9476,7 @@
         <v>2009</v>
       </c>
       <c r="B518" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C518" s="1">
         <v>60249</v>
@@ -9496,7 +9493,7 @@
         <v>2009</v>
       </c>
       <c r="B519" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C519" s="1">
         <v>10907</v>
@@ -9513,7 +9510,7 @@
         <v>2009</v>
       </c>
       <c r="B520" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C520" s="1">
         <v>1819497</v>
@@ -9530,7 +9527,7 @@
         <v>2009</v>
       </c>
       <c r="B521" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C521" s="1">
         <v>4964523</v>
@@ -9547,7 +9544,7 @@
         <v>2009</v>
       </c>
       <c r="B522" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C522" s="1">
         <v>212773</v>
@@ -9564,7 +9561,7 @@
         <v>2009</v>
       </c>
       <c r="B523" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C523" s="1">
         <v>2175220</v>
@@ -9581,7 +9578,7 @@
         <v>2009</v>
       </c>
       <c r="B524" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C524" s="1">
         <v>352172</v>
@@ -9598,7 +9595,7 @@
         <v>2009</v>
       </c>
       <c r="B525" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C525" s="1">
         <v>1170503</v>
@@ -9615,7 +9612,7 @@
         <v>2009</v>
       </c>
       <c r="B526" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C526" s="1">
         <v>661100</v>
@@ -9632,7 +9629,7 @@
         <v>2009</v>
       </c>
       <c r="B527" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C527" s="1">
         <v>6862161</v>
@@ -9649,7 +9646,7 @@
         <v>2009</v>
       </c>
       <c r="B528" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C528" s="1">
         <v>447002</v>
@@ -9666,7 +9663,7 @@
         <v>2009</v>
       </c>
       <c r="B529" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C529" s="1">
         <v>942876</v>
@@ -9683,7 +9680,7 @@
         <v>2009</v>
       </c>
       <c r="B530" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C530" s="1">
         <v>50620</v>
@@ -9700,7 +9697,7 @@
         <v>2009</v>
       </c>
       <c r="B531" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C531" s="1">
         <v>818800</v>
@@ -9717,7 +9714,7 @@
         <v>2009</v>
       </c>
       <c r="B532" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C532" s="1">
         <v>101680</v>
@@ -9734,7 +9731,7 @@
         <v>2009</v>
       </c>
       <c r="B533" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C533" s="1">
         <v>279320</v>
@@ -9751,7 +9748,7 @@
         <v>2009</v>
       </c>
       <c r="B534" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C534" s="1">
         <v>599265</v>
@@ -9768,7 +9765,7 @@
         <v>2009</v>
       </c>
       <c r="B535" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C535" s="1">
         <v>16337</v>
@@ -9785,7 +9782,7 @@
         <v>2009</v>
       </c>
       <c r="B536" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C536" s="1">
         <v>461340</v>
@@ -9802,7 +9799,7 @@
         <v>2009</v>
       </c>
       <c r="B537" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C537" s="1">
         <v>202570</v>
@@ -9819,7 +9816,7 @@
         <v>2009</v>
       </c>
       <c r="B538" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C538" s="1">
         <v>222981</v>
@@ -9836,7 +9833,7 @@
         <v>2009</v>
       </c>
       <c r="B539" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C539" s="1">
         <v>3158417</v>
@@ -9853,7 +9850,7 @@
         <v>2009</v>
       </c>
       <c r="B540" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C540" s="1">
         <v>1812688</v>
@@ -9870,7 +9867,7 @@
         <v>2009</v>
       </c>
       <c r="B541" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C541" s="1">
         <v>128738</v>
@@ -9887,7 +9884,7 @@
         <v>2009</v>
       </c>
       <c r="B542" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C542" s="1">
         <v>183986</v>
@@ -9904,7 +9901,7 @@
         <v>2009</v>
       </c>
       <c r="B543" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C543" s="1">
         <v>313442</v>
@@ -9921,7 +9918,7 @@
         <v>2009</v>
       </c>
       <c r="B544" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C544" s="1">
         <v>510931</v>
@@ -9938,7 +9935,7 @@
         <v>2009</v>
       </c>
       <c r="B545" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C545" s="1">
         <v>65646</v>
@@ -9955,7 +9952,7 @@
         <v>2009</v>
       </c>
       <c r="B546" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C546" s="1">
         <v>999460</v>
@@ -9989,7 +9986,7 @@
         <v>2009</v>
       </c>
       <c r="B548" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C548" s="1">
         <v>110200</v>
@@ -10006,7 +10003,7 @@
         <v>2009</v>
       </c>
       <c r="B549" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C549" s="1">
         <v>302354</v>
@@ -10023,7 +10020,7 @@
         <v>2008</v>
       </c>
       <c r="B550" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C550" s="1">
         <v>399236</v>
@@ -10040,7 +10037,7 @@
         <v>2008</v>
       </c>
       <c r="B551" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C551" s="1">
         <v>285590</v>
@@ -10057,7 +10054,7 @@
         <v>2008</v>
       </c>
       <c r="B552" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C552" s="1">
         <v>125836</v>
@@ -10074,7 +10071,7 @@
         <v>2008</v>
       </c>
       <c r="B553" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C553" s="1">
         <v>680131</v>
@@ -10091,7 +10088,7 @@
         <v>2008</v>
       </c>
       <c r="B554" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C554" s="1">
         <v>2545729</v>
@@ -10108,7 +10105,7 @@
         <v>2008</v>
       </c>
       <c r="B555" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C555" s="1">
         <v>1195436</v>
@@ -10125,7 +10122,7 @@
         <v>2008</v>
       </c>
       <c r="B556" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C556" s="1">
         <v>6737745</v>
@@ -10142,7 +10139,7 @@
         <v>2008</v>
       </c>
       <c r="B557" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C557" s="1">
         <v>934046</v>
@@ -10159,7 +10156,7 @@
         <v>2008</v>
       </c>
       <c r="B558" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C558" s="1">
         <v>77563</v>
@@ -10176,7 +10173,7 @@
         <v>2008</v>
       </c>
       <c r="B559" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C559" s="1">
         <v>17519</v>
@@ -10193,7 +10190,7 @@
         <v>2008</v>
       </c>
       <c r="B560" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C560" s="1">
         <v>2145935</v>
@@ -10210,7 +10207,7 @@
         <v>2008</v>
       </c>
       <c r="B561" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C561" s="1">
         <v>5532030</v>
@@ -10227,7 +10224,7 @@
         <v>2008</v>
       </c>
       <c r="B562" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C562" s="1">
         <v>342359</v>
@@ -10244,7 +10241,7 @@
         <v>2008</v>
       </c>
       <c r="B563" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C563" s="1">
         <v>1846051</v>
@@ -10261,7 +10258,7 @@
         <v>2008</v>
       </c>
       <c r="B564" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C564" s="1">
         <v>431423</v>
@@ -10278,7 +10275,7 @@
         <v>2008</v>
       </c>
       <c r="B565" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C565" s="1">
         <v>1048307</v>
@@ -10295,7 +10292,7 @@
         <v>2008</v>
       </c>
       <c r="B566" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C566" s="1">
         <v>659221</v>
@@ -10312,7 +10309,7 @@
         <v>2008</v>
       </c>
       <c r="B567" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C567" s="1">
         <v>9928143</v>
@@ -10329,7 +10326,7 @@
         <v>2008</v>
       </c>
       <c r="B568" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C568" s="1">
         <v>484512</v>
@@ -10346,7 +10343,7 @@
         <v>2008</v>
       </c>
       <c r="B569" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C569" s="1">
         <v>1217458</v>
@@ -10363,7 +10360,7 @@
         <v>2008</v>
       </c>
       <c r="B570" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C570" s="1">
         <v>59223</v>
@@ -10380,7 +10377,7 @@
         <v>2008</v>
       </c>
       <c r="B571" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C571" s="1">
         <v>842000</v>
@@ -10397,7 +10394,7 @@
         <v>2008</v>
       </c>
       <c r="B572" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C572" s="1">
         <v>132242</v>
@@ -10414,7 +10411,7 @@
         <v>2008</v>
       </c>
       <c r="B573" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C573" s="1">
         <v>231056</v>
@@ -10431,7 +10428,7 @@
         <v>2008</v>
       </c>
       <c r="B574" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C574" s="1">
         <v>1469429</v>
@@ -10448,7 +10445,7 @@
         <v>2008</v>
       </c>
       <c r="B575" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C575" s="1">
         <v>9818</v>
@@ -10465,7 +10462,7 @@
         <v>2008</v>
       </c>
       <c r="B576" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C576" s="1">
         <v>575776</v>
@@ -10482,7 +10479,7 @@
         <v>2008</v>
       </c>
       <c r="B577" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C577" s="1">
         <v>180233</v>
@@ -10499,7 +10496,7 @@
         <v>2008</v>
       </c>
       <c r="B578" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C578" s="1">
         <v>321124</v>
@@ -10516,7 +10513,7 @@
         <v>2008</v>
       </c>
       <c r="B579" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C579" s="1">
         <v>3450478</v>
@@ -10533,7 +10530,7 @@
         <v>2008</v>
       </c>
       <c r="B580" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C580" s="1">
         <v>1943049</v>
@@ -10550,7 +10547,7 @@
         <v>2008</v>
       </c>
       <c r="B581" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C581" s="1">
         <v>252287</v>
@@ -10567,7 +10564,7 @@
         <v>2008</v>
       </c>
       <c r="B582" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C582" s="1">
         <v>138714</v>
@@ -10584,7 +10581,7 @@
         <v>2008</v>
       </c>
       <c r="B583" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C583" s="1">
         <v>401309</v>
@@ -10601,7 +10598,7 @@
         <v>2008</v>
       </c>
       <c r="B584" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C584" s="1">
         <v>621567</v>
@@ -10618,7 +10615,7 @@
         <v>2008</v>
       </c>
       <c r="B585" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C585" s="1">
         <v>400799</v>
@@ -10635,7 +10632,7 @@
         <v>2008</v>
       </c>
       <c r="B586" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C586" s="1">
         <v>1446619</v>
@@ -10669,7 +10666,7 @@
         <v>2008</v>
       </c>
       <c r="B588" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C588" s="1">
         <v>195038</v>
@@ -10686,7 +10683,7 @@
         <v>2008</v>
       </c>
       <c r="B589" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C589" s="1">
         <v>365165</v>
@@ -10703,7 +10700,7 @@
         <v>2007</v>
       </c>
       <c r="B590" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C590" s="1">
         <v>350735</v>
@@ -10720,7 +10717,7 @@
         <v>2007</v>
       </c>
       <c r="B591" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C591" s="1">
         <v>283348</v>
@@ -10737,7 +10734,7 @@
         <v>2007</v>
       </c>
       <c r="B592" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C592" s="1">
         <v>199969</v>
@@ -10754,7 +10751,7 @@
         <v>2007</v>
       </c>
       <c r="B593" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C593" s="1">
         <v>789674</v>
@@ -10771,7 +10768,7 @@
         <v>2007</v>
       </c>
       <c r="B594" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C594" s="1">
         <v>2391354</v>
@@ -10788,7 +10785,7 @@
         <v>2007</v>
       </c>
       <c r="B595" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C595" s="1">
         <v>1342133</v>
@@ -10805,7 +10802,7 @@
         <v>2007</v>
       </c>
       <c r="B596" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C596" s="1">
         <v>6381116</v>
@@ -10822,7 +10819,7 @@
         <v>2007</v>
       </c>
       <c r="B597" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C597" s="1">
         <v>925060</v>
@@ -10839,7 +10836,7 @@
         <v>2007</v>
       </c>
       <c r="B598" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C598" s="1">
         <v>68934</v>
@@ -10856,7 +10853,7 @@
         <v>2007</v>
       </c>
       <c r="B599" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C599" s="1">
         <v>24000</v>
@@ -10873,7 +10870,7 @@
         <v>2007</v>
       </c>
       <c r="B600" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C600" s="1">
         <v>2550869</v>
@@ -10890,7 +10887,7 @@
         <v>2007</v>
       </c>
       <c r="B601" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C601" s="1">
         <v>5709139</v>
@@ -10907,7 +10904,7 @@
         <v>2007</v>
       </c>
       <c r="B602" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C602" s="1">
         <v>287982</v>
@@ -10924,7 +10921,7 @@
         <v>2007</v>
       </c>
       <c r="B603" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C603" s="1">
         <v>1713479</v>
@@ -10941,7 +10938,7 @@
         <v>2007</v>
       </c>
       <c r="B604" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C604" s="1">
         <v>309208</v>
@@ -10958,7 +10955,7 @@
         <v>2007</v>
       </c>
       <c r="B605" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C605" s="1">
         <v>882000</v>
@@ -10975,7 +10972,7 @@
         <v>2007</v>
       </c>
       <c r="B606" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C606" s="1">
         <v>910860</v>
@@ -10992,7 +10989,7 @@
         <v>2007</v>
       </c>
       <c r="B607" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C607" s="1">
         <v>9944637</v>
@@ -11009,7 +11006,7 @@
         <v>2007</v>
       </c>
       <c r="B608" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C608" s="1">
         <v>347971</v>
@@ -11026,7 +11023,7 @@
         <v>2007</v>
       </c>
       <c r="B609" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C609" s="1">
         <v>1209097</v>
@@ -11043,7 +11040,7 @@
         <v>2007</v>
       </c>
       <c r="B610" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C610" s="1">
         <v>61912</v>
@@ -11060,7 +11057,7 @@
         <v>2007</v>
       </c>
       <c r="B611" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C611" s="1">
         <v>695000</v>
@@ -11077,7 +11074,7 @@
         <v>2007</v>
       </c>
       <c r="B612" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C612" s="1">
         <v>134047</v>
@@ -11094,7 +11091,7 @@
         <v>2007</v>
       </c>
       <c r="B613" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C613" s="1">
         <v>234103</v>
@@ -11111,7 +11108,7 @@
         <v>2007</v>
       </c>
       <c r="B614" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C614" s="1">
         <v>1288652</v>
@@ -11128,7 +11125,7 @@
         <v>2007</v>
       </c>
       <c r="B615" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C615" s="1">
         <v>8236</v>
@@ -11145,7 +11142,7 @@
         <v>2007</v>
       </c>
       <c r="B616" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C616" s="1">
         <v>571071</v>
@@ -11162,7 +11159,7 @@
         <v>2007</v>
       </c>
       <c r="B617" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C617" s="1">
         <v>174209</v>
@@ -11179,7 +11176,7 @@
         <v>2007</v>
       </c>
       <c r="B618" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C618" s="1">
         <v>276018</v>
@@ -11196,7 +11193,7 @@
         <v>2007</v>
       </c>
       <c r="B619" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C619" s="1">
         <v>3723482</v>
@@ -11213,7 +11210,7 @@
         <v>2007</v>
       </c>
       <c r="B620" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C620" s="1">
         <v>2195780</v>
@@ -11230,7 +11227,7 @@
         <v>2007</v>
       </c>
       <c r="B621" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C621" s="1">
         <v>316850</v>
@@ -11247,7 +11244,7 @@
         <v>2007</v>
       </c>
       <c r="B622" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C622" s="1">
         <v>212685</v>
@@ -11264,7 +11261,7 @@
         <v>2007</v>
       </c>
       <c r="B623" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C623" s="1">
         <v>315444</v>
@@ -11281,7 +11278,7 @@
         <v>2007</v>
       </c>
       <c r="B624" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C624" s="1">
         <v>634883</v>
@@ -11298,7 +11295,7 @@
         <v>2007</v>
       </c>
       <c r="B625" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C625" s="1">
         <v>380061</v>
@@ -11315,7 +11312,7 @@
         <v>2007</v>
       </c>
       <c r="B626" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C626" s="1">
         <v>1534567</v>
@@ -11349,7 +11346,7 @@
         <v>2007</v>
       </c>
       <c r="B628" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C628" s="1">
         <v>170000</v>
@@ -11366,7 +11363,7 @@
         <v>2007</v>
       </c>
       <c r="B629" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C629" s="1">
         <v>420770</v>
@@ -11383,7 +11380,7 @@
         <v>2006</v>
       </c>
       <c r="B630" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C630" s="1">
         <v>263120</v>
@@ -11400,7 +11397,7 @@
         <v>2006</v>
       </c>
       <c r="B631" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C631" s="1">
         <v>270000</v>
@@ -11417,7 +11414,7 @@
         <v>2006</v>
       </c>
       <c r="B632" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C632" s="1">
         <v>248059</v>
@@ -11434,7 +11431,7 @@
         <v>2006</v>
       </c>
       <c r="B633" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C633" s="1">
         <v>881929</v>
@@ -11451,7 +11448,7 @@
         <v>2006</v>
       </c>
       <c r="B634" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C634" s="1">
         <v>2092029</v>
@@ -11468,7 +11465,7 @@
         <v>2006</v>
       </c>
       <c r="B635" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C635" s="1">
         <v>1389536</v>
@@ -11485,7 +11482,7 @@
         <v>2006</v>
       </c>
       <c r="B636" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C636" s="1">
         <v>5233132</v>
@@ -11502,7 +11499,7 @@
         <v>2006</v>
       </c>
       <c r="B637" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C637" s="1">
         <v>848922</v>
@@ -11519,7 +11516,7 @@
         <v>2006</v>
       </c>
       <c r="B638" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C638" s="1">
         <v>59462</v>
@@ -11536,7 +11533,7 @@
         <v>2006</v>
       </c>
       <c r="B639" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C639" s="1">
         <v>32417</v>
@@ -11553,7 +11550,7 @@
         <v>2006</v>
       </c>
       <c r="B640" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C640" s="1">
         <v>2723196</v>
@@ -11570,7 +11567,7 @@
         <v>2006</v>
       </c>
       <c r="B641" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C641" s="1">
         <v>5398508</v>
@@ -11587,7 +11584,7 @@
         <v>2006</v>
       </c>
       <c r="B642" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C642" s="1">
         <v>187633</v>
@@ -11604,7 +11601,7 @@
         <v>2006</v>
       </c>
       <c r="B643" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C643" s="1">
         <v>1473000</v>
@@ -11621,7 +11618,7 @@
         <v>2006</v>
       </c>
       <c r="B644" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C644" s="1">
         <v>256285</v>
@@ -11638,7 +11635,7 @@
         <v>2006</v>
       </c>
       <c r="B645" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C645" s="1">
         <v>800000</v>
@@ -11655,7 +11652,7 @@
         <v>2006</v>
       </c>
       <c r="B646" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C646" s="1">
         <v>892502</v>
@@ -11672,7 +11669,7 @@
         <v>2006</v>
       </c>
       <c r="B647" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C647" s="1">
         <v>9756515</v>
@@ -11689,7 +11686,7 @@
         <v>2006</v>
       </c>
       <c r="B648" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C648" s="1">
         <v>377952</v>
@@ -11706,7 +11703,7 @@
         <v>2006</v>
       </c>
       <c r="B649" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C649" s="1">
         <v>1097619</v>
@@ -11723,7 +11720,7 @@
         <v>2006</v>
       </c>
       <c r="B650" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C650" s="1">
         <v>87332</v>
@@ -11740,7 +11737,7 @@
         <v>2006</v>
       </c>
       <c r="B651" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C651" s="1">
         <v>632300</v>
@@ -11757,7 +11754,7 @@
         <v>2006</v>
       </c>
       <c r="B652" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C652" s="1">
         <v>143478</v>
@@ -11774,7 +11771,7 @@
         <v>2006</v>
       </c>
       <c r="B653" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C653" s="1">
         <v>201663</v>
@@ -11791,7 +11788,7 @@
         <v>2006</v>
       </c>
       <c r="B654" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C654" s="1">
         <v>1177918</v>
@@ -11808,7 +11805,7 @@
         <v>2006</v>
       </c>
       <c r="B655" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C655" s="1">
         <v>9832</v>
@@ -11825,7 +11822,7 @@
         <v>2006</v>
       </c>
       <c r="B656" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C656" s="1">
         <v>295391</v>
@@ -11842,7 +11839,7 @@
         <v>2006</v>
       </c>
       <c r="B657" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C657" s="1">
         <v>115000</v>
@@ -11859,7 +11856,7 @@
         <v>2006</v>
       </c>
       <c r="B658" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C658" s="1">
         <v>334482</v>
@@ -11876,7 +11873,7 @@
         <v>2006</v>
       </c>
       <c r="B659" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C659" s="1">
         <v>3489136</v>
@@ -11893,7 +11890,7 @@
         <v>2006</v>
       </c>
       <c r="B660" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C660" s="1">
         <v>2078639</v>
@@ -11910,7 +11907,7 @@
         <v>2006</v>
       </c>
       <c r="B661" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C661" s="1">
         <v>288583</v>
@@ -11927,7 +11924,7 @@
         <v>2006</v>
       </c>
       <c r="B662" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C662" s="1">
         <v>211306</v>
@@ -11944,7 +11941,7 @@
         <v>2006</v>
       </c>
       <c r="B663" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C663" s="1">
         <v>298819</v>
@@ -11961,7 +11958,7 @@
         <v>2006</v>
       </c>
       <c r="B664" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C664" s="1">
         <v>545682</v>
@@ -11978,7 +11975,7 @@
         <v>2006</v>
       </c>
       <c r="B665" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C665" s="1">
         <v>274860</v>
@@ -11995,7 +11992,7 @@
         <v>2006</v>
       </c>
       <c r="B666" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C666" s="1">
         <v>1442085</v>
@@ -12029,7 +12026,7 @@
         <v>2006</v>
       </c>
       <c r="B668" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C668" s="1">
         <v>100000</v>
@@ -12046,7 +12043,7 @@
         <v>2006</v>
       </c>
       <c r="B669" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C669" s="1">
         <v>376110</v>
@@ -12063,7 +12060,7 @@
         <v>2005</v>
       </c>
       <c r="B670" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C670" s="1">
         <v>182761</v>
@@ -12080,7 +12077,7 @@
         <v>2005</v>
       </c>
       <c r="B671" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C671" s="1">
         <v>316414</v>
@@ -12097,7 +12094,7 @@
         <v>2005</v>
       </c>
       <c r="B672" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C672" s="1">
         <v>230505</v>
@@ -12114,7 +12111,7 @@
         <v>2005</v>
       </c>
       <c r="B673" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C673" s="1">
         <v>895109</v>
@@ -12131,7 +12128,7 @@
         <v>2005</v>
       </c>
       <c r="B674" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C674" s="1">
         <v>2011817</v>
@@ -12148,7 +12145,7 @@
         <v>2005</v>
       </c>
       <c r="B675" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C675" s="1">
         <v>1356271</v>
@@ -12165,7 +12162,7 @@
         <v>2005</v>
       </c>
       <c r="B676" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C676" s="1">
         <v>3941767</v>
@@ -12182,7 +12179,7 @@
         <v>2005</v>
       </c>
       <c r="B677" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C677" s="1">
         <v>596774</v>
@@ -12199,7 +12196,7 @@
         <v>2005</v>
       </c>
       <c r="B678" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C678" s="1">
         <v>43638</v>
@@ -12216,7 +12213,7 @@
         <v>2005</v>
       </c>
       <c r="B679" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C679" s="1">
         <v>21233</v>
@@ -12233,7 +12230,7 @@
         <v>2005</v>
       </c>
       <c r="B680" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C680" s="1">
         <v>3112961</v>
@@ -12250,7 +12247,7 @@
         <v>2005</v>
       </c>
       <c r="B681" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C681" s="1">
         <v>5350187</v>
@@ -12267,7 +12264,7 @@
         <v>2005</v>
       </c>
       <c r="B682" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C682" s="1">
         <v>148533</v>
@@ -12284,7 +12281,7 @@
         <v>2005</v>
       </c>
       <c r="B683" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C683" s="1">
         <v>1264111</v>
@@ -12301,7 +12298,7 @@
         <v>2005</v>
       </c>
       <c r="B684" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C684" s="1">
         <v>332590</v>
@@ -12318,7 +12315,7 @@
         <v>2005</v>
       </c>
       <c r="B685" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C685" s="1">
         <v>923800</v>
@@ -12335,7 +12332,7 @@
         <v>2005</v>
       </c>
       <c r="B686" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C686" s="1">
         <v>725528</v>
@@ -12352,7 +12349,7 @@
         <v>2005</v>
       </c>
       <c r="B687" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C687" s="1">
         <v>9016735</v>
@@ -12369,7 +12366,7 @@
         <v>2005</v>
       </c>
       <c r="B688" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C688" s="1">
         <v>404571</v>
@@ -12386,7 +12383,7 @@
         <v>2005</v>
       </c>
       <c r="B689" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C689" s="1">
         <v>846048</v>
@@ -12403,7 +12400,7 @@
         <v>2005</v>
       </c>
       <c r="B690" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C690" s="1">
         <v>115121</v>
@@ -12420,7 +12417,7 @@
         <v>2005</v>
       </c>
       <c r="B691" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C691" s="1">
         <v>540100</v>
@@ -12437,7 +12434,7 @@
         <v>2005</v>
       </c>
       <c r="B692" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C692" s="1">
         <v>137602</v>
@@ -12454,7 +12451,7 @@
         <v>2005</v>
       </c>
       <c r="B693" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C693" s="1">
         <v>174538</v>
@@ -12471,7 +12468,7 @@
         <v>2005</v>
       </c>
       <c r="B694" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C694" s="1">
         <v>1068511</v>
@@ -12488,7 +12485,7 @@
         <v>2005</v>
       </c>
       <c r="B695" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C695" s="1">
         <v>12574</v>
@@ -12505,7 +12502,7 @@
         <v>2005</v>
       </c>
       <c r="B696" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C696" s="1">
         <v>218349</v>
@@ -12522,7 +12519,7 @@
         <v>2005</v>
       </c>
       <c r="B697" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C697" s="1">
         <v>138393</v>
@@ -12539,7 +12536,7 @@
         <v>2005</v>
       </c>
       <c r="B698" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C698" s="1">
         <v>324875</v>
@@ -12556,7 +12553,7 @@
         <v>2005</v>
       </c>
       <c r="B699" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C699" s="1">
         <v>3357094</v>
@@ -12573,7 +12570,7 @@
         <v>2005</v>
       </c>
       <c r="B700" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C700" s="1">
         <v>2098168</v>
@@ -12590,7 +12587,7 @@
         <v>2005</v>
       </c>
       <c r="B701" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C701" s="1">
         <v>288659</v>
@@ -12607,7 +12604,7 @@
         <v>2005</v>
       </c>
       <c r="B702" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C702" s="1">
         <v>323819</v>
@@ -12624,7 +12621,7 @@
         <v>2005</v>
       </c>
       <c r="B703" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C703" s="1">
         <v>277562</v>
@@ -12641,7 +12638,7 @@
         <v>2005</v>
       </c>
       <c r="B704" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C704" s="1">
         <v>453663</v>
@@ -12658,7 +12655,7 @@
         <v>2005</v>
       </c>
       <c r="B705" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C705" s="1">
         <v>196722</v>
@@ -12675,7 +12672,7 @@
         <v>2005</v>
       </c>
       <c r="B706" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C706" s="1">
         <v>1596356</v>
@@ -12709,7 +12706,7 @@
         <v>2005</v>
       </c>
       <c r="B708" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C708" s="1">
         <v>87512</v>
@@ -12726,7 +12723,7 @@
         <v>2005</v>
       </c>
       <c r="B709" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C709" s="1">
         <v>372593</v>
@@ -12743,7 +12740,7 @@
         <v>2004</v>
       </c>
       <c r="B710" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C710" s="1">
         <v>171400</v>
@@ -12760,7 +12757,7 @@
         <v>2004</v>
       </c>
       <c r="B711" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C711" s="1">
         <v>337510</v>
@@ -12777,7 +12774,7 @@
         <v>2004</v>
       </c>
       <c r="B712" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C712" s="1">
         <v>227244</v>
@@ -12794,7 +12791,7 @@
         <v>2004</v>
       </c>
       <c r="B713" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C713" s="1">
         <v>857119</v>
@@ -12811,7 +12808,7 @@
         <v>2004</v>
       </c>
       <c r="B714" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C714" s="1">
         <v>1862780</v>
@@ -12828,7 +12825,7 @@
         <v>2004</v>
       </c>
       <c r="B715" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C715" s="1">
         <v>1335516</v>
@@ -12845,7 +12842,7 @@
         <v>2004</v>
       </c>
       <c r="B716" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C716" s="1">
         <v>2480231</v>
@@ -12862,7 +12859,7 @@
         <v>2004</v>
       </c>
       <c r="B717" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C717" s="1">
         <v>443065</v>
@@ -12879,7 +12876,7 @@
         <v>2004</v>
       </c>
       <c r="B718" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C718" s="1">
         <v>34591</v>
@@ -12896,7 +12893,7 @@
         <v>2004</v>
       </c>
       <c r="B719" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C719" s="1">
         <v>10051</v>
@@ -12913,7 +12910,7 @@
         <v>2004</v>
       </c>
       <c r="B720" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C720" s="1">
         <v>3227416</v>
@@ -12930,7 +12927,7 @@
         <v>2004</v>
       </c>
       <c r="B721" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C721" s="1">
         <v>5192101</v>
@@ -12947,7 +12944,7 @@
         <v>2004</v>
       </c>
       <c r="B722" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C722" s="1">
         <v>118590</v>
@@ -12964,7 +12961,7 @@
         <v>2004</v>
       </c>
       <c r="B723" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C723" s="1">
         <v>1178354</v>
@@ -12981,7 +12978,7 @@
         <v>2004</v>
       </c>
       <c r="B724" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C724" s="1">
         <v>262752</v>
@@ -12998,7 +12995,7 @@
         <v>2004</v>
       </c>
       <c r="B725" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C725" s="1">
         <v>707773</v>
@@ -13015,7 +13012,7 @@
         <v>2004</v>
       </c>
       <c r="B726" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C726" s="1">
         <v>833578</v>
@@ -13032,7 +13029,7 @@
         <v>2004</v>
       </c>
       <c r="B727" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C727" s="1">
         <v>8720385</v>
@@ -13049,7 +13046,7 @@
         <v>2004</v>
       </c>
       <c r="B728" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C728" s="1">
         <v>364852</v>
@@ -13066,7 +13063,7 @@
         <v>2004</v>
       </c>
       <c r="B729" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C729" s="1">
         <v>903313</v>
@@ -13083,7 +13080,7 @@
         <v>2004</v>
       </c>
       <c r="B730" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C730" s="1">
         <v>187600</v>
@@ -13100,7 +13097,7 @@
         <v>2004</v>
       </c>
       <c r="B731" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C731" s="1">
         <v>523000</v>
@@ -13117,7 +13114,7 @@
         <v>2004</v>
       </c>
       <c r="B732" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C732" s="1">
         <v>150781</v>
@@ -13134,7 +13131,7 @@
         <v>2004</v>
       </c>
       <c r="B733" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C733" s="1">
         <v>98997</v>
@@ -13151,7 +13148,7 @@
         <v>2004</v>
       </c>
       <c r="B734" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C734" s="1">
         <v>1110079</v>
@@ -13168,7 +13165,7 @@
         <v>2004</v>
       </c>
       <c r="B735" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C735" s="1">
         <v>13266</v>
@@ -13185,7 +13182,7 @@
         <v>2004</v>
       </c>
       <c r="B736" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C736" s="1">
         <v>223542</v>
@@ -13202,7 +13199,7 @@
         <v>2004</v>
       </c>
       <c r="B737" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C737" s="1">
         <v>116609</v>
@@ -13219,7 +13216,7 @@
         <v>2004</v>
       </c>
       <c r="B738" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C738" s="1">
         <v>300963</v>
@@ -13236,7 +13233,7 @@
         <v>2004</v>
       </c>
       <c r="B739" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C739" s="1">
         <v>3122600</v>
@@ -13253,7 +13250,7 @@
         <v>2004</v>
       </c>
       <c r="B740" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C740" s="1">
         <v>2402501</v>
@@ -13270,7 +13267,7 @@
         <v>2004</v>
       </c>
       <c r="B741" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C741" s="1">
         <v>290383</v>
@@ -13287,7 +13284,7 @@
         <v>2004</v>
       </c>
       <c r="B742" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C742" s="1">
         <v>299639</v>
@@ -13304,7 +13301,7 @@
         <v>2004</v>
       </c>
       <c r="B743" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C743" s="1">
         <v>299439</v>
@@ -13321,7 +13318,7 @@
         <v>2004</v>
       </c>
       <c r="B744" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C744" s="1">
         <v>447152</v>
@@ -13338,7 +13335,7 @@
         <v>2004</v>
       </c>
       <c r="B745" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C745" s="1">
         <v>179098</v>
@@ -13355,7 +13352,7 @@
         <v>2004</v>
       </c>
       <c r="B746" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C746" s="1">
         <v>1647246</v>
@@ -13389,7 +13386,7 @@
         <v>2004</v>
       </c>
       <c r="B748" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C748" s="1">
         <v>66896</v>
@@ -13406,7 +13403,7 @@
         <v>2004</v>
       </c>
       <c r="B749" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C749" s="1">
         <v>226533</v>
@@ -13423,7 +13420,7 @@
         <v>2003</v>
       </c>
       <c r="B750" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C750" s="1">
         <v>109364</v>
@@ -13440,7 +13437,7 @@
         <v>2003</v>
       </c>
       <c r="B751" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C751" s="1">
         <v>365611</v>
@@ -13457,7 +13454,7 @@
         <v>2003</v>
       </c>
       <c r="B752" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C752" s="1">
         <v>118650</v>
@@ -13474,7 +13471,7 @@
         <v>2003</v>
       </c>
       <c r="B753" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C753" s="1">
         <v>791703</v>
@@ -13491,7 +13488,7 @@
         <v>2003</v>
       </c>
       <c r="B754" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C754" s="1">
         <v>1505139</v>
@@ -13508,7 +13505,7 @@
         <v>2003</v>
       </c>
       <c r="B755" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C755" s="1">
         <v>1340175</v>
@@ -13525,7 +13522,7 @@
         <v>2003</v>
       </c>
       <c r="B756" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C756" s="1">
         <v>2018875</v>
@@ -13542,7 +13539,7 @@
         <v>2003</v>
       </c>
       <c r="B757" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C757" s="1">
         <v>436279</v>
@@ -13559,7 +13556,7 @@
         <v>2003</v>
       </c>
       <c r="B758" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C758" s="1">
         <v>32581</v>
@@ -13576,7 +13573,7 @@
         <v>2003</v>
       </c>
       <c r="B759" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C759" s="1">
         <v>19226</v>
@@ -13593,7 +13590,7 @@
         <v>2003</v>
       </c>
       <c r="B760" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C760" s="1">
         <v>3220329</v>
@@ -13610,7 +13607,7 @@
         <v>2003</v>
       </c>
       <c r="B761" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C761" s="1">
         <v>5145403</v>
@@ -13627,7 +13624,7 @@
         <v>2003</v>
       </c>
       <c r="B762" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C762" s="1">
         <v>122338</v>
@@ -13644,7 +13641,7 @@
         <v>2003</v>
       </c>
       <c r="B763" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C763" s="1">
         <v>907968</v>
@@ -13661,7 +13658,7 @@
         <v>2003</v>
       </c>
       <c r="B764" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C764" s="1">
         <v>203196</v>
@@ -13678,7 +13675,7 @@
         <v>2003</v>
       </c>
       <c r="B765" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C765" s="1">
         <v>516930</v>
@@ -13695,7 +13692,7 @@
         <v>2003</v>
       </c>
       <c r="B766" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C766" s="1">
         <v>1026454</v>
@@ -13712,7 +13709,7 @@
         <v>2003</v>
       </c>
       <c r="B767" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C767" s="1">
         <v>8478328</v>
@@ -13729,7 +13726,7 @@
         <v>2003</v>
       </c>
       <c r="B768" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C768" s="1">
         <v>324911</v>
@@ -13746,7 +13743,7 @@
         <v>2003</v>
       </c>
       <c r="B769" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C769" s="1">
         <v>774048</v>
@@ -13763,7 +13760,7 @@
         <v>2003</v>
       </c>
       <c r="B770" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C770" s="1">
         <v>163080</v>
@@ -13780,7 +13777,7 @@
         <v>2003</v>
       </c>
       <c r="B771" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C771" s="1">
         <v>306847</v>
@@ -13797,7 +13794,7 @@
         <v>2003</v>
       </c>
       <c r="B772" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C772" s="1">
         <v>165576</v>
@@ -13814,7 +13811,7 @@
         <v>2003</v>
       </c>
       <c r="B773" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C773" s="1">
         <v>75706</v>
@@ -13831,7 +13828,7 @@
         <v>2003</v>
       </c>
       <c r="B774" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C774" s="1">
         <v>1010436</v>
@@ -13848,7 +13845,7 @@
         <v>2003</v>
       </c>
       <c r="B775" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C775" s="1">
         <v>12996</v>
@@ -13865,7 +13862,7 @@
         <v>2003</v>
       </c>
       <c r="B776" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C776" s="1">
         <v>281160</v>
@@ -13882,7 +13879,7 @@
         <v>2003</v>
       </c>
       <c r="B777" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C777" s="1">
         <v>110597</v>
@@ -13899,7 +13896,7 @@
         <v>2003</v>
       </c>
       <c r="B778" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C778" s="1">
         <v>291249</v>
@@ -13916,7 +13913,7 @@
         <v>2003</v>
       </c>
       <c r="B779" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C779" s="1">
         <v>2767716</v>
@@ -13933,7 +13930,7 @@
         <v>2003</v>
       </c>
       <c r="B780" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C780" s="1">
         <v>2399374</v>
@@ -13950,7 +13947,7 @@
         <v>2003</v>
       </c>
       <c r="B781" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C781" s="1">
         <v>280394</v>
@@ -13967,7 +13964,7 @@
         <v>2003</v>
       </c>
       <c r="B782" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C782" s="1">
         <v>264837</v>
@@ -13984,7 +13981,7 @@
         <v>2003</v>
       </c>
       <c r="B783" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C783" s="1">
         <v>251691</v>
@@ -14001,7 +13998,7 @@
         <v>2003</v>
       </c>
       <c r="B784" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C784" s="1">
         <v>294116</v>
@@ -14018,7 +14015,7 @@
         <v>2003</v>
       </c>
       <c r="B785" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C785" s="1">
         <v>103000</v>
@@ -14035,7 +14032,7 @@
         <v>2003</v>
       </c>
       <c r="B786" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C786" s="1">
         <v>1657558</v>
@@ -14069,7 +14066,7 @@
         <v>2003</v>
       </c>
       <c r="B788" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C788" s="1">
         <v>39196</v>
@@ -14086,7 +14083,7 @@
         <v>2003</v>
       </c>
       <c r="B789" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C789" s="1">
         <v>144607</v>
@@ -14103,7 +14100,7 @@
         <v>2002</v>
       </c>
       <c r="B790" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C790" s="1">
         <v>111340</v>
@@ -14120,7 +14117,7 @@
         <v>2002</v>
       </c>
       <c r="B791" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C791" s="1">
         <v>306876</v>
@@ -14137,7 +14134,7 @@
         <v>2002</v>
       </c>
       <c r="B792" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C792" s="1">
         <v>132768</v>
@@ -14154,7 +14151,7 @@
         <v>2002</v>
       </c>
       <c r="B793" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C793" s="1">
         <v>936903</v>
@@ -14171,7 +14168,7 @@
         <v>2002</v>
       </c>
       <c r="B794" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C794" s="1">
         <v>1520285</v>
@@ -14188,7 +14185,7 @@
         <v>2002</v>
       </c>
       <c r="B795" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C795" s="1">
         <v>1369042</v>
@@ -14205,7 +14202,7 @@
         <v>2002</v>
       </c>
       <c r="B796" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C796" s="1">
         <v>1101696</v>
@@ -14222,7 +14219,7 @@
         <v>2002</v>
       </c>
       <c r="B797" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C797" s="1">
         <v>441312</v>
@@ -14239,7 +14236,7 @@
         <v>2002</v>
       </c>
       <c r="B798" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C798" s="1">
         <v>27422</v>
@@ -14256,7 +14253,7 @@
         <v>2002</v>
       </c>
       <c r="B799" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C799" s="1">
         <v>41068</v>
@@ -14273,7 +14270,7 @@
         <v>2002</v>
       </c>
       <c r="B800" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C800" s="1">
         <v>3292797</v>
@@ -14290,7 +14287,7 @@
         <v>2002</v>
       </c>
       <c r="B801" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C801" s="1">
         <v>5123238</v>
@@ -14307,7 +14304,7 @@
         <v>2002</v>
       </c>
       <c r="B802" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C802" s="1">
         <v>138239</v>
@@ -14324,7 +14321,7 @@
         <v>2002</v>
       </c>
       <c r="B803" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C803" s="1">
         <v>703948</v>
@@ -14341,7 +14338,7 @@
         <v>2002</v>
       </c>
       <c r="B804" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C804" s="1">
         <v>193492</v>
@@ -14358,7 +14355,7 @@
         <v>2002</v>
       </c>
       <c r="B805" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C805" s="1">
         <v>439116</v>
@@ -14375,7 +14372,7 @@
         <v>2002</v>
       </c>
       <c r="B806" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C806" s="1">
         <v>1125769</v>
@@ -14392,7 +14389,7 @@
         <v>2002</v>
       </c>
       <c r="B807" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C807" s="1">
         <v>8618354</v>
@@ -14409,7 +14406,7 @@
         <v>2002</v>
       </c>
       <c r="B808" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C808" s="1">
         <v>380000</v>
@@ -14426,7 +14423,7 @@
         <v>2002</v>
       </c>
       <c r="B809" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C809" s="1">
         <v>960097</v>
@@ -14443,7 +14440,7 @@
         <v>2002</v>
       </c>
       <c r="B810" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C810" s="1">
         <v>182368</v>
@@ -14460,7 +14457,7 @@
         <v>2002</v>
       </c>
       <c r="B811" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C811" s="1">
         <v>287534</v>
@@ -14477,7 +14474,7 @@
         <v>2002</v>
       </c>
       <c r="B812" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C812" s="1">
         <v>182573</v>
@@ -14494,7 +14491,7 @@
         <v>2002</v>
       </c>
       <c r="B813" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C813" s="1">
         <v>65266</v>
@@ -14511,7 +14508,7 @@
         <v>2002</v>
       </c>
       <c r="B814" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C814" s="1">
         <v>980061</v>
@@ -14528,7 +14525,7 @@
         <v>2002</v>
       </c>
       <c r="B815" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C815" s="1">
         <v>10271</v>
@@ -14545,7 +14542,7 @@
         <v>2002</v>
       </c>
       <c r="B816" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C816" s="1">
         <v>225442</v>
@@ -14562,7 +14559,7 @@
         <v>2002</v>
       </c>
       <c r="B817" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C817" s="1">
         <v>126661</v>
@@ -14579,7 +14576,7 @@
         <v>2002</v>
       </c>
       <c r="B818" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C818" s="1">
         <v>276499</v>
@@ -14596,7 +14593,7 @@
         <v>2002</v>
       </c>
       <c r="B819" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C819" s="1">
         <v>2651273</v>
@@ -14613,7 +14610,7 @@
         <v>2002</v>
       </c>
       <c r="B820" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C820" s="1">
         <v>2266902</v>
@@ -14630,7 +14627,7 @@
         <v>2002</v>
       </c>
       <c r="B821" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C821" s="1">
         <v>237975</v>
@@ -14647,7 +14644,7 @@
         <v>2002</v>
       </c>
       <c r="B822" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C822" s="1">
         <v>231506</v>
@@ -14664,7 +14661,7 @@
         <v>2002</v>
       </c>
       <c r="B823" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C823" s="1">
         <v>169321</v>
@@ -14681,7 +14678,7 @@
         <v>2002</v>
       </c>
       <c r="B824" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C824" s="1">
         <v>204198</v>
@@ -14698,7 +14695,7 @@
         <v>2002</v>
       </c>
       <c r="B825" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C825" s="1">
         <v>50393</v>
@@ -14715,7 +14712,7 @@
         <v>2002</v>
       </c>
       <c r="B826" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C826" s="1">
         <v>1629934</v>
@@ -14749,7 +14746,7 @@
         <v>2002</v>
       </c>
       <c r="B828" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C828" s="1">
         <v>22705</v>
@@ -14766,7 +14763,7 @@
         <v>2002</v>
       </c>
       <c r="B829" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C829" s="1">
         <v>119255</v>
@@ -14783,7 +14780,7 @@
         <v>2001</v>
       </c>
       <c r="B830" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C830" s="1">
         <v>169580</v>
@@ -14800,7 +14797,7 @@
         <v>2001</v>
       </c>
       <c r="B831" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C831" s="1">
         <v>285870</v>
@@ -14817,7 +14814,7 @@
         <v>2001</v>
       </c>
       <c r="B832" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C832" s="1">
         <v>131098</v>
@@ -14834,7 +14831,7 @@
         <v>2001</v>
       </c>
       <c r="B833" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C833" s="1">
         <v>1058656</v>
@@ -14851,7 +14848,7 @@
         <v>2001</v>
       </c>
       <c r="B834" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C834" s="1">
         <v>1501586</v>
@@ -14868,7 +14865,7 @@
         <v>2001</v>
       </c>
       <c r="B835" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C835" s="1">
         <v>1274853</v>
@@ -14885,7 +14882,7 @@
         <v>2001</v>
       </c>
       <c r="B836" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C836" s="1">
         <v>703521</v>
@@ -14902,7 +14899,7 @@
         <v>2001</v>
       </c>
       <c r="B837" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C837" s="1">
         <v>456927</v>
@@ -14919,7 +14916,7 @@
         <v>2001</v>
       </c>
       <c r="B838" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C838" s="1">
         <v>37006</v>
@@ -14936,7 +14933,7 @@
         <v>2001</v>
       </c>
       <c r="B839" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C839" s="1">
         <v>41916</v>
@@ -14953,7 +14950,7 @@
         <v>2001</v>
       </c>
       <c r="B840" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C840" s="1">
         <v>3181549</v>
@@ -14970,7 +14967,7 @@
         <v>2001</v>
       </c>
       <c r="B841" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C841" s="1">
         <v>5301189</v>
@@ -14987,7 +14984,7 @@
         <v>2001</v>
       </c>
       <c r="B842" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C842" s="1">
         <v>140401</v>
@@ -15004,7 +15001,7 @@
         <v>2001</v>
       </c>
       <c r="B843" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C843" s="1">
         <v>654557</v>
@@ -15021,7 +15018,7 @@
         <v>2001</v>
       </c>
       <c r="B844" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C844" s="1">
         <v>32237</v>
@@ -15038,7 +15035,7 @@
         <v>2001</v>
       </c>
       <c r="B845" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C845" s="1">
         <v>316334</v>
@@ -15055,7 +15052,7 @@
         <v>2001</v>
       </c>
       <c r="B846" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C846" s="1">
         <v>1271780</v>
@@ -15072,7 +15069,7 @@
         <v>2001</v>
       </c>
       <c r="B847" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C847" s="1">
         <v>8117563</v>
@@ -15089,7 +15086,7 @@
         <v>2001</v>
       </c>
       <c r="B848" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C848" s="1">
         <v>344686</v>
@@ -15106,7 +15103,7 @@
         <v>2001</v>
       </c>
       <c r="B849" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C849" s="1">
         <v>1000715</v>
@@ -15123,7 +15120,7 @@
         <v>2001</v>
       </c>
       <c r="B850" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C850" s="1">
         <v>189261</v>
@@ -15140,7 +15137,7 @@
         <v>2001</v>
       </c>
       <c r="B851" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C851" s="1">
         <v>335996</v>
@@ -15157,7 +15154,7 @@
         <v>2001</v>
       </c>
       <c r="B852" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C852" s="1">
         <v>177357</v>
@@ -15174,7 +15171,7 @@
         <v>2001</v>
       </c>
       <c r="B853" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C853" s="1">
         <v>56774</v>
@@ -15191,7 +15188,7 @@
         <v>2001</v>
       </c>
       <c r="B854" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C854" s="1">
         <v>1021682</v>
@@ -15208,7 +15205,7 @@
         <v>2001</v>
       </c>
       <c r="B855" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C855" s="1">
         <v>7489</v>
@@ -15225,7 +15222,7 @@
         <v>2001</v>
       </c>
       <c r="B856" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C856" s="1">
         <v>181644</v>
@@ -15242,7 +15239,7 @@
         <v>2001</v>
       </c>
       <c r="B857" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C857" s="1">
         <v>116082</v>
@@ -15259,7 +15256,7 @@
         <v>2001</v>
       </c>
       <c r="B858" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C858" s="1">
         <v>270538</v>
@@ -15276,7 +15273,7 @@
         <v>2001</v>
       </c>
       <c r="B859" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C859" s="1">
         <v>2471444</v>
@@ -15293,7 +15290,7 @@
         <v>2001</v>
       </c>
       <c r="B860" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C860" s="1">
         <v>2211172</v>
@@ -15310,7 +15307,7 @@
         <v>2001</v>
       </c>
       <c r="B861" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C861" s="1">
         <v>251035</v>
@@ -15327,7 +15324,7 @@
         <v>2001</v>
       </c>
       <c r="B862" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C862" s="1">
         <v>195109</v>
@@ -15344,7 +15341,7 @@
         <v>2001</v>
       </c>
       <c r="B863" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C863" s="1">
         <v>156066</v>
@@ -15361,7 +15358,7 @@
         <v>2001</v>
       </c>
       <c r="B864" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C864" s="1">
         <v>175343</v>
@@ -15378,7 +15375,7 @@
         <v>2001</v>
       </c>
       <c r="B865" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C865" s="1">
         <v>24995</v>
@@ -15395,7 +15392,7 @@
         <v>2001</v>
       </c>
       <c r="B866" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C866" s="1">
         <v>1492365</v>
@@ -15429,7 +15426,7 @@
         <v>2001</v>
       </c>
       <c r="B868" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C868" s="1">
         <v>32425</v>
@@ -15446,7 +15443,7 @@
         <v>2001</v>
       </c>
       <c r="B869" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C869" s="1">
         <v>121532</v>
@@ -15463,7 +15460,7 @@
         <v>2000</v>
       </c>
       <c r="B870" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C870" s="1">
         <v>238921</v>
@@ -15480,7 +15477,7 @@
         <v>2000</v>
       </c>
       <c r="B871" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C871" s="1">
         <v>323649</v>
@@ -15497,7 +15494,7 @@
         <v>2000</v>
       </c>
       <c r="B872" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C872" s="1">
         <v>115979</v>
@@ -15514,7 +15511,7 @@
         <v>2000</v>
       </c>
       <c r="B873" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C873" s="1">
         <v>912233</v>
@@ -15531,7 +15528,7 @@
         <v>2000</v>
       </c>
       <c r="B874" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C874" s="1">
         <v>1351998</v>
@@ -15548,7 +15545,7 @@
         <v>2000</v>
       </c>
       <c r="B875" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C875" s="1">
         <v>1550500</v>
@@ -15565,7 +15562,7 @@
         <v>2000</v>
       </c>
       <c r="B876" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C876" s="1">
         <v>604677</v>
@@ -15582,7 +15579,7 @@
         <v>2000</v>
       </c>
       <c r="B877" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C877" s="1">
         <v>428224</v>
@@ -15599,7 +15596,7 @@
         <v>2000</v>
       </c>
       <c r="B878" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C878" s="1">
         <v>39616</v>
@@ -15616,7 +15613,7 @@
         <v>2000</v>
       </c>
       <c r="B879" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C879" s="1">
         <v>38468</v>
@@ -15633,7 +15630,7 @@
         <v>2000</v>
       </c>
       <c r="B880" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C880" s="1">
         <v>2879810</v>
@@ -15650,7 +15647,7 @@
         <v>2000</v>
       </c>
       <c r="B881" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C881" s="1">
         <v>5131918</v>
@@ -15667,7 +15664,7 @@
         <v>2000</v>
       </c>
       <c r="B882" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C882" s="1">
         <v>134029</v>
@@ -15684,7 +15681,7 @@
         <v>2000</v>
       </c>
       <c r="B883" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C883" s="1">
         <v>517957</v>
@@ -15701,7 +15698,7 @@
         <v>2000</v>
       </c>
       <c r="B884" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C884" s="1">
         <v>257058</v>
@@ -15718,7 +15715,7 @@
         <v>2000</v>
       </c>
       <c r="B885" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C885" s="1">
         <v>274985</v>
@@ -15735,7 +15732,7 @@
         <v>2000</v>
       </c>
       <c r="B886" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C886" s="1">
         <v>1422284</v>
@@ -15752,7 +15749,7 @@
         <v>2000</v>
       </c>
       <c r="B887" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C887" s="1">
         <v>8359434</v>
@@ -15769,7 +15766,7 @@
         <v>2000</v>
       </c>
       <c r="B888" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C888" s="1">
         <v>280283</v>
@@ -15786,7 +15783,7 @@
         <v>2000</v>
       </c>
       <c r="B889" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C889" s="1">
         <v>1279089</v>
@@ -15803,7 +15800,7 @@
         <v>2000</v>
       </c>
       <c r="B890" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C890" s="1">
         <v>215085</v>
@@ -15820,7 +15817,7 @@
         <v>2000</v>
       </c>
       <c r="B891" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C891" s="1">
         <v>481689</v>
@@ -15837,7 +15834,7 @@
         <v>2000</v>
       </c>
       <c r="B892" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C892" s="1">
         <v>178509</v>
@@ -15854,7 +15851,7 @@
         <v>2000</v>
       </c>
       <c r="B893" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C893" s="1">
         <v>64181</v>
@@ -15871,7 +15868,7 @@
         <v>2000</v>
       </c>
       <c r="B894" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C894" s="1">
         <v>969235</v>
@@ -15888,7 +15885,7 @@
         <v>2000</v>
       </c>
       <c r="B895" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C895" s="1">
         <v>11091</v>
@@ -15905,7 +15902,7 @@
         <v>2000</v>
       </c>
       <c r="B896" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C896" s="1">
         <v>181333</v>
@@ -15922,7 +15919,7 @@
         <v>2000</v>
       </c>
       <c r="B897" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C897" s="1">
         <v>122949</v>
@@ -15939,7 +15936,7 @@
         <v>2000</v>
       </c>
       <c r="B898" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C898" s="1">
         <v>230577</v>
@@ -15956,7 +15953,7 @@
         <v>2000</v>
       </c>
       <c r="B899" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C899" s="1">
         <v>2602008</v>
@@ -15973,7 +15970,7 @@
         <v>2000</v>
       </c>
       <c r="B900" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C900" s="1">
         <v>2366359</v>
@@ -15990,7 +15987,7 @@
         <v>2000</v>
       </c>
       <c r="B901" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C901" s="1">
         <v>259959</v>
@@ -16007,7 +16004,7 @@
         <v>2000</v>
       </c>
       <c r="B902" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C902" s="1">
         <v>263013</v>
@@ -16024,7 +16021,7 @@
         <v>2000</v>
       </c>
       <c r="B903" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C903" s="1">
         <v>97129</v>
@@ -16041,7 +16038,7 @@
         <v>2000</v>
       </c>
       <c r="B904" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C904" s="1">
         <v>297476</v>
@@ -16058,7 +16055,7 @@
         <v>2000</v>
       </c>
       <c r="B905" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C905" s="1">
         <v>18124</v>
@@ -16075,7 +16072,7 @@
         <v>2000</v>
       </c>
       <c r="B906" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C906" s="1">
         <v>1641452</v>
@@ -16109,7 +16106,7 @@
         <v>2000</v>
       </c>
       <c r="B908" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C908" s="1">
         <v>32273</v>
@@ -16126,7 +16123,7 @@
         <v>2000</v>
       </c>
       <c r="B909" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C909" s="1">
         <v>127445</v>
@@ -16139,7 +16136,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A909" xr:uid="{1FFD793D-D7D5-1E48-9547-EC69B137BFD9}"/>
+  <autoFilter ref="B1:B909" xr:uid="{1FFD793D-D7D5-1E48-9547-EC69B137BFD9}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
